--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -15,7 +15,7 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5300,7 +5300,7 @@
         <v>141</v>
       </c>
       <c r="B184" s="5">
-        <v>2.2160000000000002</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="C184" t="s">
         <v>25</v>
@@ -5323,7 +5323,7 @@
         <v>44</v>
       </c>
       <c r="B185" s="5">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="D185" t="s">
         <v>13</v>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B186" s="5">
         <f>18.4/1000*B184</f>
-        <v>4.0774400000000002E-2</v>
+        <v>4.3663200000000006E-2</v>
       </c>
       <c r="C186" t="s">
         <v>25</v>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B187" s="5">
         <f>0.01*B184</f>
-        <v>2.2160000000000003E-2</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="C187" t="s">
         <v>25</v>
@@ -5522,7 +5522,7 @@
         <v>141</v>
       </c>
       <c r="B200" s="5">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="C200" t="s">
         <v>25</v>
@@ -5545,7 +5545,7 @@
         <v>76</v>
       </c>
       <c r="B201" s="5">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B202" s="5">
         <f>18.4/1000*B200</f>
-        <v>3.3120000000000004E-2</v>
+        <v>3.5511999999999995E-2</v>
       </c>
       <c r="C202" t="s">
         <v>25</v>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B203" s="5">
         <f>0.01*B200</f>
-        <v>1.8000000000000002E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="C203" t="s">
         <v>25</v>
@@ -5744,7 +5744,7 @@
         <v>141</v>
       </c>
       <c r="B216" s="5">
-        <v>2.2890000000000001</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="C216" t="s">
         <v>25</v>
@@ -5767,7 +5767,7 @@
         <v>44</v>
       </c>
       <c r="B217" s="5">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B218" s="5">
         <f>18.4/1000*B216</f>
-        <v>4.2117600000000005E-2</v>
+        <v>4.5098400000000004E-2</v>
       </c>
       <c r="C218" t="s">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="B219" s="5">
         <f>0.01*B216</f>
-        <v>2.2890000000000001E-2</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="C219" t="s">
         <v>25</v>
@@ -5966,7 +5966,7 @@
         <v>141</v>
       </c>
       <c r="B232" s="5">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
@@ -5989,7 +5989,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="D233" t="s">
         <v>13</v>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B234" s="5">
         <f>18.4/1000*B232</f>
-        <v>4.4159999999999998E-2</v>
+        <v>4.7287999999999997E-2</v>
       </c>
       <c r="C234" t="s">
         <v>25</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B235" s="5">
         <f>0.01*B232</f>
-        <v>2.4E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="C235" t="s">
         <v>25</v>
@@ -6191,7 +6191,7 @@
         <v>141</v>
       </c>
       <c r="B249" s="5">
-        <v>2.2559999999999998</v>
+        <v>2.371</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
@@ -6214,7 +6214,7 @@
         <v>44</v>
       </c>
       <c r="B250" s="5">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="D250" t="s">
         <v>13</v>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B251" s="5">
         <f>18.4/1000*B249</f>
-        <v>4.1510399999999996E-2</v>
+        <v>4.3626399999999996E-2</v>
       </c>
       <c r="C251" t="s">
         <v>25</v>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B252" s="5">
         <f>0.01*B249</f>
-        <v>2.2559999999999997E-2</v>
+        <v>2.3710000000000002E-2</v>
       </c>
       <c r="C252" t="s">
         <v>25</v>
@@ -6413,7 +6413,7 @@
         <v>141</v>
       </c>
       <c r="B265" s="5">
-        <v>4.26</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C265" t="s">
         <v>25</v>
@@ -6436,7 +6436,7 @@
         <v>44</v>
       </c>
       <c r="B266" s="5">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="D266" t="s">
         <v>13</v>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B267" s="5">
         <f>18.4/1000*B265</f>
-        <v>7.8383999999999995E-2</v>
+        <v>8.3903999999999992E-2</v>
       </c>
       <c r="C267" t="s">
         <v>25</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="B268" s="5">
         <f>0.01*B265</f>
-        <v>4.2599999999999999E-2</v>
+        <v>4.5599999999999995E-2</v>
       </c>
       <c r="C268" t="s">
         <v>25</v>
@@ -6638,7 +6638,7 @@
         <v>141</v>
       </c>
       <c r="B282" s="5">
-        <v>2.36</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="C282" t="s">
         <v>25</v>
@@ -6661,7 +6661,7 @@
         <v>44</v>
       </c>
       <c r="B283" s="5">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="D283" t="s">
         <v>13</v>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="B284" s="5">
         <f>18.4/1000*B282</f>
-        <v>4.3423999999999997E-2</v>
+        <v>4.6644000000000005E-2</v>
       </c>
       <c r="C284" t="s">
         <v>25</v>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="B285" s="5">
         <f>0.01*B282</f>
-        <v>2.3599999999999999E-2</v>
+        <v>2.5350000000000001E-2</v>
       </c>
       <c r="C285" t="s">
         <v>25</v>
@@ -6860,7 +6860,7 @@
         <v>141</v>
       </c>
       <c r="B298" s="5">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="C298" t="s">
         <v>25</v>
@@ -6883,7 +6883,7 @@
         <v>76</v>
       </c>
       <c r="B299" s="5">
-        <v>0.44</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D299" t="s">
         <v>13</v>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="B300" s="5">
         <f>18.4/1000*B298</f>
-        <v>3.0543999999999998E-2</v>
+        <v>3.2568E-2</v>
       </c>
       <c r="C300" t="s">
         <v>25</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B301" s="5">
         <f>0.01*B298</f>
-        <v>1.66E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="C301" t="s">
         <v>25</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>Car db</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
   </si>
   <si>
     <t>hydrogen, 4kg per ton of methanol processed</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
   </si>
   <si>
     <t>diesel, synthetic, vehicle grade</t>
@@ -457,6 +448,15 @@
   </si>
   <si>
     <t>Hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -960,85 +960,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1056,7 +1056,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1068,9 +1068,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1103,7 +1103,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1138,9 +1138,9 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1173,9 +1173,9 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1208,7 +1208,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1220,45 +1220,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1276,7 +1276,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1288,9 +1288,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1323,7 +1323,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1358,9 +1358,9 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1393,9 +1393,9 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1428,48 +1428,48 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1488,7 +1488,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1501,9 +1501,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1539,7 +1539,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1577,9 +1577,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1615,9 +1615,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1653,48 +1653,48 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1713,7 +1713,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1726,9 +1726,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1764,7 +1764,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1802,9 +1802,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1840,9 +1840,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1887,35 +1887,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1931,15 +1931,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1955,12 +1955,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1995,9 +1995,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2018,15 +2018,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2046,10 +2046,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2074,15 +2074,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2096,12 +2096,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2121,12 +2121,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2146,12 +2146,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2171,18 +2171,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2196,18 +2196,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2221,21 +2221,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2246,12 +2246,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2260,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2271,18 +2271,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2296,10 +2296,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2312,15 +2312,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2336,15 +2336,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2360,12 +2360,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2385,13 +2385,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
         <v>51</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>52</v>
-      </c>
-      <c r="I31" t="s">
-        <v>53</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2400,9 +2400,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2423,15 +2423,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2451,10 +2451,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2479,15 +2479,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2501,12 +2501,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2526,12 +2526,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2551,12 +2551,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2576,18 +2576,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2601,18 +2601,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2626,21 +2626,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2651,12 +2651,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2665,7 +2665,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2676,18 +2676,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2701,10 +2701,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2717,15 +2717,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2741,15 +2741,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2765,12 +2765,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2790,13 +2790,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
         <v>51</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>52</v>
-      </c>
-      <c r="I52" t="s">
-        <v>53</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2805,9 +2805,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2828,15 +2828,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2856,10 +2856,10 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2884,15 +2884,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2906,12 +2906,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2931,12 +2931,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2956,12 +2956,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2981,18 +2981,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -3006,18 +3006,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3031,21 +3031,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3056,12 +3056,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3070,7 +3070,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3081,18 +3081,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3106,10 +3106,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3122,15 +3122,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3146,15 +3146,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3170,12 +3170,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3195,13 +3195,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" t="s">
         <v>51</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>52</v>
-      </c>
-      <c r="I73" t="s">
-        <v>53</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3210,9 +3210,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3233,15 +3233,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3261,10 +3261,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3289,15 +3289,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3311,12 +3311,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3336,12 +3336,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3361,12 +3361,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3386,18 +3386,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3411,18 +3411,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3436,21 +3436,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3461,12 +3461,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3475,7 +3475,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3486,18 +3486,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3511,10 +3511,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3527,7 +3527,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3540,15 +3540,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3564,15 +3564,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3588,12 +3588,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3613,13 +3613,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" t="s">
         <v>51</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>52</v>
-      </c>
-      <c r="I95" t="s">
-        <v>53</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3628,9 +3628,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3651,15 +3651,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3679,10 +3679,10 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -3707,15 +3707,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3729,12 +3729,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3754,12 +3754,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3779,12 +3779,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3804,18 +3804,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3829,18 +3829,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3854,21 +3854,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3879,12 +3879,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3893,7 +3893,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3904,18 +3904,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3929,10 +3929,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3945,15 +3945,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3969,15 +3969,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3993,12 +3993,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4018,13 +4018,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" t="s">
         <v>51</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>52</v>
-      </c>
-      <c r="I116" t="s">
-        <v>53</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4033,9 +4033,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4056,15 +4056,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4084,10 +4084,10 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>34</v>
       </c>
@@ -4112,15 +4112,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4134,12 +4134,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4159,12 +4159,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4184,12 +4184,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4209,18 +4209,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4234,18 +4234,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4259,21 +4259,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4284,12 +4284,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4298,7 +4298,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4309,18 +4309,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4334,10 +4334,10 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4350,15 +4350,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4374,15 +4374,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4398,12 +4398,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4423,13 +4423,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
+        <v>50</v>
+      </c>
+      <c r="H137" t="s">
         <v>51</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>52</v>
-      </c>
-      <c r="I137" t="s">
-        <v>53</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4438,9 +4438,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4461,15 +4461,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4489,10 +4489,10 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -4517,15 +4517,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4539,12 +4539,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4564,12 +4564,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4589,12 +4589,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4614,18 +4614,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4639,18 +4639,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4664,21 +4664,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4689,12 +4689,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4703,7 +4703,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4714,18 +4714,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4739,10 +4739,10 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4755,15 +4755,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4779,15 +4779,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4803,12 +4803,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4828,13 +4828,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
+        <v>50</v>
+      </c>
+      <c r="H158" t="s">
         <v>51</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>52</v>
-      </c>
-      <c r="I158" t="s">
-        <v>53</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4843,9 +4843,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4866,15 +4866,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4894,10 +4894,10 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -4922,15 +4922,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4944,12 +4944,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4969,12 +4969,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4994,12 +4994,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5019,18 +5019,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5044,18 +5044,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5069,21 +5069,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5094,12 +5094,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5108,7 +5108,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5119,18 +5119,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5144,10 +5144,10 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5160,7 +5160,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5173,15 +5173,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5189,15 +5189,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5221,28 +5221,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5271,9 +5271,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5289,15 +5289,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5312,15 +5312,15 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H184" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B185" s="5">
         <v>0.11</v>
@@ -5338,10 +5338,10 @@
         <v>23</v>
       </c>
       <c r="I185" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>34</v>
       </c>
@@ -5365,9 +5365,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B187" s="5">
         <f>0.01*B184</f>
@@ -5386,24 +5386,24 @@
         <v>24</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I187" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -5411,15 +5411,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -5443,28 +5443,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>28</v>
       </c>
       <c r="B195" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>9</v>
       </c>
@@ -5493,9 +5493,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -5511,15 +5511,15 @@
         <v>18</v>
       </c>
       <c r="G199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B200" s="5">
         <v>1.93</v>
@@ -5534,15 +5534,15 @@
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H200" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B201" s="5">
         <v>0.5</v>
@@ -5551,7 +5551,7 @@
         <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="F201" t="s">
         <v>17</v>
@@ -5560,10 +5560,10 @@
         <v>23</v>
       </c>
       <c r="I201" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>34</v>
       </c>
@@ -5587,9 +5587,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B203" s="5">
         <f>0.01*B200</f>
@@ -5608,24 +5608,24 @@
         <v>24</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I203" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -5633,15 +5633,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -5665,28 +5665,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>28</v>
       </c>
       <c r="B211" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>9</v>
       </c>
@@ -5715,9 +5715,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -5733,15 +5733,15 @@
         <v>18</v>
       </c>
       <c r="G215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B216" s="5">
         <v>2.4510000000000001</v>
@@ -5756,15 +5756,15 @@
         <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H216" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B217" s="5">
         <v>0.2</v>
@@ -5782,10 +5782,10 @@
         <v>23</v>
       </c>
       <c r="I217" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -5809,9 +5809,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B219" s="5">
         <f>0.01*B216</f>
@@ -5830,24 +5830,24 @@
         <v>24</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I219" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -5855,15 +5855,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -5887,28 +5887,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>28</v>
       </c>
       <c r="B227" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>22</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>9</v>
       </c>
@@ -5937,9 +5937,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -5955,15 +5955,15 @@
         <v>18</v>
       </c>
       <c r="G231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B232" s="5">
         <v>2.57</v>
@@ -5978,15 +5978,15 @@
         <v>14</v>
       </c>
       <c r="G232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H232" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B233" s="5">
         <v>0.36</v>
@@ -6004,10 +6004,10 @@
         <v>23</v>
       </c>
       <c r="I233" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -6031,9 +6031,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B235" s="5">
         <f>0.01*B232</f>
@@ -6052,27 +6052,27 @@
         <v>24</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I235" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -6080,15 +6080,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -6112,28 +6112,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>28</v>
       </c>
       <c r="B244" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>22</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>9</v>
       </c>
@@ -6162,9 +6162,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -6180,15 +6180,15 @@
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B249" s="5">
         <v>2.371</v>
@@ -6203,15 +6203,15 @@
         <v>14</v>
       </c>
       <c r="G249" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H249" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B250" s="5">
         <v>0.11</v>
@@ -6229,10 +6229,10 @@
         <v>23</v>
       </c>
       <c r="I250" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>34</v>
       </c>
@@ -6256,9 +6256,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B252" s="5">
         <f>0.01*B249</f>
@@ -6277,24 +6277,24 @@
         <v>24</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I252" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -6302,15 +6302,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -6334,28 +6334,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>28</v>
       </c>
       <c r="B260" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>22</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>9</v>
       </c>
@@ -6384,9 +6384,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -6402,15 +6402,15 @@
         <v>18</v>
       </c>
       <c r="G264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B265" s="5">
         <v>4.5599999999999996</v>
@@ -6425,15 +6425,15 @@
         <v>14</v>
       </c>
       <c r="G265" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H265" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B266" s="5">
         <v>3.11</v>
@@ -6451,10 +6451,10 @@
         <v>23</v>
       </c>
       <c r="I266" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>34</v>
       </c>
@@ -6478,9 +6478,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B268" s="5">
         <f>0.01*B265</f>
@@ -6499,27 +6499,27 @@
         <v>24</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I268" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -6527,15 +6527,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -6559,28 +6559,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>28</v>
       </c>
       <c r="B277" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>22</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>9</v>
       </c>
@@ -6609,9 +6609,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -6627,15 +6627,15 @@
         <v>18</v>
       </c>
       <c r="G281" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B282" s="5">
         <v>2.5350000000000001</v>
@@ -6650,15 +6650,15 @@
         <v>14</v>
       </c>
       <c r="G282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H282" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B283" s="5">
         <v>0.46</v>
@@ -6676,10 +6676,10 @@
         <v>23</v>
       </c>
       <c r="I283" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>34</v>
       </c>
@@ -6703,9 +6703,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B285" s="5">
         <f>0.01*B282</f>
@@ -6724,24 +6724,24 @@
         <v>24</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I285" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -6749,15 +6749,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -6781,28 +6781,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>28</v>
       </c>
       <c r="B293" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>22</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>9</v>
       </c>
@@ -6831,9 +6831,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -6849,15 +6849,15 @@
         <v>18</v>
       </c>
       <c r="G297" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B298" s="5">
         <v>1.77</v>
@@ -6872,15 +6872,15 @@
         <v>14</v>
       </c>
       <c r="G298" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H298" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B299" s="5">
         <v>0.57999999999999996</v>
@@ -6889,7 +6889,7 @@
         <v>13</v>
       </c>
       <c r="E299" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -6898,10 +6898,10 @@
         <v>23</v>
       </c>
       <c r="I299" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>34</v>
       </c>
@@ -6925,9 +6925,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B301" s="5">
         <f>0.01*B298</f>
@@ -6946,24 +6946,24 @@
         <v>24</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I301" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>28</v>
       </c>
@@ -6979,15 +6979,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -7003,15 +7003,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>22</v>
       </c>
       <c r="B309" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -7019,28 +7019,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>28</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>22</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>9</v>
       </c>
@@ -7066,9 +7066,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -7083,15 +7083,15 @@
         <v>14</v>
       </c>
       <c r="G315" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H315" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -7106,13 +7106,13 @@
         <v>18</v>
       </c>
       <c r="G316" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H316" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>30</v>
       </c>
@@ -7135,9 +7135,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B318">
         <v>0.13206758828730655</v>
@@ -7155,7 +7155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>33</v>
       </c>
@@ -7175,9 +7175,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B320">
         <v>12.456827894327896</v>
@@ -7192,21 +7192,21 @@
         <v>14</v>
       </c>
       <c r="G320" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H320" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1</v>
       </c>
@@ -7214,15 +7214,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -7246,28 +7246,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>28</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>22</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -7293,9 +7293,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B332">
         <f>12.89</f>
@@ -7311,15 +7311,15 @@
         <v>14</v>
       </c>
       <c r="G332" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H332" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -7334,37 +7334,37 @@
         <v>18</v>
       </c>
       <c r="G333" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H333" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B334" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C334" t="s">
+        <v>48</v>
+      </c>
+      <c r="D334" t="s">
+        <v>13</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
         <v>49</v>
-      </c>
-      <c r="D334" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>50</v>
       </c>
       <c r="H334" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>35</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>37</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -7460,9 +7460,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B339" s="5">
         <f>6240000/44900000</f>
@@ -7478,13 +7478,13 @@
         <v>14</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H339" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>42</v>
       </c>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="145">
   <si>
     <t>Activity</t>
   </si>
@@ -603,7 +603,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -638,6 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -960,26 +961,26 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -987,7 +988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -995,12 +996,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -1036,7 +1037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>105</v>
       </c>
@@ -1056,7 +1057,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1068,7 +1069,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>106</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>107</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>108</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1220,7 +1221,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1256,7 +1257,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>105</v>
       </c>
@@ -1276,7 +1277,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1288,7 +1289,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>106</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>107</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>108</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>110</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -1467,7 +1468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>105</v>
       </c>
@@ -1488,7 +1489,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1501,7 +1502,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>106</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>107</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>108</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>110</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -1692,7 +1693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>105</v>
       </c>
@@ -1713,7 +1714,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1726,7 +1727,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>106</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>107</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>108</v>
       </c>
@@ -1885,21 +1886,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K340"/>
+  <dimension ref="A1:K341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1955,12 +1956,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>122</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>123</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2312,7 +2313,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2360,12 +2361,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>124</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>125</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>47</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>64</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>72</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2717,7 +2718,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2765,12 +2766,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>126</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>127</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>47</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>72</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3122,7 +3123,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3170,12 +3171,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>128</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>129</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>54</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>58</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>60</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>62</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>47</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>64</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>67</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>72</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3527,7 +3528,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3540,7 +3541,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3588,12 +3589,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>130</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>131</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>54</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>56</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>58</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>60</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>62</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>47</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>64</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>67</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>72</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3945,7 +3946,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3993,12 +3994,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>132</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>133</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>34</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>54</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>56</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>58</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>60</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>62</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>47</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>64</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>67</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>72</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4350,7 +4351,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4398,12 +4399,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>134</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>135</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>54</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>56</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>58</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>60</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>62</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>47</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>64</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>67</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>72</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4755,7 +4756,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4803,12 +4804,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>136</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>137</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>54</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>56</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>58</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>60</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>62</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>47</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>64</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>67</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>72</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5160,7 +5161,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5173,7 +5174,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -5237,12 +5238,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>133</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>138</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>142</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>34</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>140</v>
       </c>
@@ -5392,10 +5393,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>28</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -5459,12 +5460,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>9</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>125</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>138</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>144</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>34</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>140</v>
       </c>
@@ -5614,10 +5615,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>0</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -5681,12 +5682,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>9</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>135</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>138</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>142</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>140</v>
       </c>
@@ -5836,10 +5837,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>0</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>28</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -5903,12 +5904,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>9</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>127</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>138</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>142</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>140</v>
       </c>
@@ -6058,13 +6059,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>28</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>22</v>
       </c>
@@ -6128,12 +6129,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>9</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>137</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>138</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>34</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>140</v>
       </c>
@@ -6283,10 +6284,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>0</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>28</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -6350,12 +6351,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>9</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>129</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>138</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>142</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>34</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>140</v>
       </c>
@@ -6505,13 +6506,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>0</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -6575,12 +6576,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>9</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>131</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>138</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>142</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>34</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>140</v>
       </c>
@@ -6730,10 +6731,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>0</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -6781,7 +6782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>28</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>22</v>
       </c>
@@ -6797,12 +6798,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>9</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>123</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>138</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>144</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>34</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>140</v>
       </c>
@@ -6952,10 +6953,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>0</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>28</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>22</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>22</v>
       </c>
@@ -7035,12 +7036,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>9</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>139</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>138</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>30</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>142</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>33</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>115</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>0</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>2</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>28</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>22</v>
       </c>
@@ -7262,12 +7263,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>115</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>139</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>47</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>35</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>37</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>140</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>42</v>
       </c>
@@ -7507,6 +7508,31 @@
       <c r="H340" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B341" s="34">
+        <f>B334</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
   <si>
     <t>Activity</t>
   </si>
@@ -121,9 +121,6 @@
     <t>heat, from steam, in chemical industry</t>
   </si>
   <si>
-    <t>Carbon monoxide, non-fossil</t>
-  </si>
-  <si>
     <t>market group for electricity, low voltage</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>Car db</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>treatment of wastewater, average, capacity 1E9l/year</t>
   </si>
   <si>
-    <t>To close the carbon balance, as there is 1.55 kg of CO2 per kg of methanol.</t>
-  </si>
-  <si>
     <t>hydrogen, 4kg per ton of methanol processed</t>
   </si>
   <si>
@@ -259,39 +250,15 @@
     <t>liquefied petroleum gas, synthetic</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 6.3%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 9%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>gasoline, synthetic</t>
   </si>
   <si>
     <t>diesel, synthetic</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 47%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 87.8%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 37%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 38.8%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>kerosene, synthetic</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
@@ -370,11 +337,6 @@
     <t>methanol production facility, construction</t>
   </si>
   <si>
-    <t>Adapted from Comparative well-to-wheel life cycle assessment of
-OME3–5 synfuel production via the power-to-liquid
-pathway, Hank et al. 2019</t>
-  </si>
-  <si>
     <t>Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway. Christoph Hank, Lukas Lazar, Franz Mantei, Mohamed Ouda, Robin J. White, Tom Smolinka, Achim Schaadt, Christopher Hebling and Hans-Martin Henning. 2019. https://doi.org/10.1039/C9SE00658C</t>
   </si>
   <si>
@@ -390,73 +352,100 @@
     <t>Methanol-based fuels from coal</t>
   </si>
   <si>
-    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>kerosene production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>diesel production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>gasoline production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>kerosene production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>diesel production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>gasoline production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>methanol distillation, hydrogen from coal gasification, CO2 from DAC</t>
-  </si>
-  <si>
-    <t>methanol synthesis, hydrogen from coal gasification, CO2 from DAC</t>
-  </si>
-  <si>
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
     <t>Hydrogen, gaseous, 30 bar</t>
   </si>
   <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019
+The hydrogen process (coal gasification) releases 18.024 kg CO2 per kg H2. Here, 0.139 kg H2 are needed, corresponding to 2.5 kg CO2 released from the gasification process.
+1.69 kg out of the 2.5 kg CO2 are redirected as CO2 input in the methanol synthesis process. This means that these 1.69 kg are not emitted.
+Hence, a 1.69 kg CO2 correction is added.</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, fossil</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>kerosene production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>kerosene production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 37%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 38.8%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 47%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 87.8%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 9%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 6.3%.</t>
+  </si>
+  <si>
+    <t>methanol distillation, hydrogen from coal gasification</t>
+  </si>
+  <si>
+    <t>methanol synthesis, hydrogen from coal gasification</t>
   </si>
 </sst>
 </file>
@@ -960,85 +949,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1056,7 +1045,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1068,9 +1057,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1103,7 +1092,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1138,9 +1127,9 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1173,9 +1162,9 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1208,7 +1197,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1220,45 +1209,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1276,7 +1265,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1288,9 +1277,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1323,7 +1312,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1358,9 +1347,9 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1393,9 +1382,9 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1428,48 +1417,48 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1488,7 +1477,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1501,9 +1490,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1539,7 +1528,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1577,9 +1566,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1615,9 +1604,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1653,48 +1642,48 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1713,7 +1702,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1726,9 +1715,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1764,7 +1753,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1802,9 +1791,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1840,9 +1829,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1885,37 +1874,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K340"/>
+  <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1923,7 +1912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1931,15 +1920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1955,12 +1944,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1980,13 +1969,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1995,9 +1984,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2018,15 +2007,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2046,12 +2035,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2074,15 +2063,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2096,12 +2085,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2121,12 +2110,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2146,12 +2135,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2171,18 +2160,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2196,18 +2185,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2221,21 +2210,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2246,12 +2235,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2260,7 +2249,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2271,18 +2260,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2296,10 +2285,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2312,15 +2301,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2336,15 +2325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2360,12 +2349,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2385,13 +2374,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
         <v>50</v>
-      </c>
-      <c r="H31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2400,9 +2389,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2423,15 +2412,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2451,12 +2440,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2479,15 +2468,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2501,12 +2490,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2526,12 +2515,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2551,12 +2540,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2576,18 +2565,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2601,18 +2590,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2626,21 +2615,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2651,12 +2640,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2665,7 +2654,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2676,18 +2665,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2701,10 +2690,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2717,15 +2706,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2741,15 +2730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2765,12 +2754,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2790,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
         <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" t="s">
-        <v>52</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2805,9 +2794,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2828,15 +2817,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2856,12 +2845,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2884,15 +2873,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2906,12 +2895,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2931,12 +2920,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2956,12 +2945,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2981,18 +2970,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -3006,18 +2995,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3031,21 +3020,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3056,12 +3045,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3070,7 +3059,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3081,18 +3070,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3106,10 +3095,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3122,15 +3111,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +3127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3146,15 +3135,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3170,12 +3159,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3195,13 +3184,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
         <v>50</v>
-      </c>
-      <c r="H73" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73" t="s">
-        <v>52</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3210,9 +3199,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3233,15 +3222,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3261,12 +3250,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3289,15 +3278,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3311,12 +3300,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3336,12 +3325,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3361,12 +3350,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3386,18 +3375,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3411,18 +3400,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3436,21 +3425,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3461,12 +3450,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3475,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3486,18 +3475,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3511,10 +3500,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3527,7 +3516,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3540,15 +3529,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3564,15 +3553,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3588,12 +3577,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3613,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" t="s">
         <v>50</v>
-      </c>
-      <c r="H95" t="s">
-        <v>51</v>
-      </c>
-      <c r="I95" t="s">
-        <v>52</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3628,9 +3617,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3651,15 +3640,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3679,12 +3668,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3707,15 +3696,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3729,12 +3718,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3754,12 +3743,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3779,12 +3768,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3804,18 +3793,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3829,18 +3818,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3854,21 +3843,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3879,12 +3868,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3893,7 +3882,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3904,18 +3893,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3929,10 +3918,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3945,15 +3934,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +3950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3969,15 +3958,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3985,7 +3974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3993,12 +3982,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4018,13 +4007,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
+        <v>48</v>
+      </c>
+      <c r="H116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I116" t="s">
         <v>50</v>
-      </c>
-      <c r="H116" t="s">
-        <v>51</v>
-      </c>
-      <c r="I116" t="s">
-        <v>52</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4033,9 +4022,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4056,15 +4045,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4084,12 +4073,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4112,15 +4101,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4134,12 +4123,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4159,12 +4148,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4184,12 +4173,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4209,18 +4198,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4234,18 +4223,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4259,21 +4248,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4284,12 +4273,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4298,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4309,18 +4298,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4334,10 +4323,10 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4350,15 +4339,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4366,7 +4355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4374,15 +4363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4390,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4398,12 +4387,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4423,13 +4412,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
+        <v>48</v>
+      </c>
+      <c r="H137" t="s">
+        <v>49</v>
+      </c>
+      <c r="I137" t="s">
         <v>50</v>
-      </c>
-      <c r="H137" t="s">
-        <v>51</v>
-      </c>
-      <c r="I137" t="s">
-        <v>52</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4438,9 +4427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4461,15 +4450,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4489,12 +4478,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4517,15 +4506,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4539,12 +4528,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4564,12 +4553,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4589,12 +4578,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4614,18 +4603,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4639,18 +4628,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4664,21 +4653,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4689,12 +4678,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4703,7 +4692,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4714,18 +4703,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4739,10 +4728,10 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4755,15 +4744,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +4760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4779,15 +4768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4795,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4803,12 +4792,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4828,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
+        <v>48</v>
+      </c>
+      <c r="H158" t="s">
+        <v>49</v>
+      </c>
+      <c r="I158" t="s">
         <v>50</v>
-      </c>
-      <c r="H158" t="s">
-        <v>51</v>
-      </c>
-      <c r="I158" t="s">
-        <v>52</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4843,9 +4832,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4866,15 +4855,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4894,12 +4883,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4922,15 +4911,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4944,12 +4933,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4969,12 +4958,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4994,12 +4983,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5019,18 +5008,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5044,18 +5033,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5069,21 +5058,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5094,12 +5083,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5108,7 +5097,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5119,18 +5108,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5144,10 +5133,10 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5160,7 +5149,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5173,15 +5162,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5189,15 +5178,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5205,7 +5194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5221,28 +5210,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5271,9 +5260,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5289,15 +5278,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5312,48 +5301,49 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H184" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B185" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185" t="s">
-        <v>16</v>
-      </c>
-      <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
-      <c r="I185" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>34</v>
-      </c>
-      <c r="B186" s="5">
         <f>18.4/1000*B184</f>
         <v>4.3663200000000006E-2</v>
       </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B186" s="5">
+        <f>0.01*B184</f>
+        <v>2.3730000000000001E-2</v>
+      </c>
       <c r="C186" t="s">
         <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -5361,2162 +5351,1975 @@
       <c r="G186" t="s">
         <v>24</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H186" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I186" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" t="s">
+        <v>44</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>139</v>
+      </c>
+      <c r="B199" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>44</v>
+      </c>
+      <c r="H199" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200" s="5">
+        <f>18.4/1000*B199</f>
+        <v>3.5511999999999995E-2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B201" s="5">
+        <f>0.01*B199</f>
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I201" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" t="s">
+        <v>44</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>139</v>
+      </c>
+      <c r="B214" s="5">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="C214" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>44</v>
+      </c>
+      <c r="H214" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>33</v>
+      </c>
+      <c r="B215" s="5">
+        <f>18.4/1000*B214</f>
+        <v>4.5098400000000004E-2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s">
+        <v>24</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" s="5">
+        <f>0.01*B214</f>
+        <v>2.4510000000000001E-2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>25</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s">
+        <v>24</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I216" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B228" s="3">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="s">
+        <v>44</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" s="5">
+        <v>2.57</v>
+      </c>
+      <c r="C229" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s">
+        <v>44</v>
+      </c>
+      <c r="H229" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>33</v>
+      </c>
+      <c r="B230" s="5">
+        <f>18.4/1000*B229</f>
+        <v>4.7287999999999997E-2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s">
+        <v>24</v>
+      </c>
+      <c r="H230" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B231" s="5">
+        <f>0.01*B229</f>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s">
+        <v>24</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I231" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" t="s">
+        <v>44</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>139</v>
+      </c>
+      <c r="B245" s="5">
+        <v>2.371</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" t="s">
+        <v>44</v>
+      </c>
+      <c r="H245" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>33</v>
+      </c>
+      <c r="B246" s="5">
+        <f>18.4/1000*B245</f>
+        <v>4.3626399999999996E-2</v>
+      </c>
+      <c r="C246" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" t="s">
+        <v>24</v>
+      </c>
+      <c r="H246" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B247" s="5">
+        <f>0.01*B245</f>
+        <v>2.3710000000000002E-2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s">
+        <v>24</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I247" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B248" s="5"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>28</v>
+      </c>
+      <c r="B255" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G259" t="s">
+        <v>44</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>139</v>
+      </c>
+      <c r="B260" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C260" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s">
+        <v>44</v>
+      </c>
+      <c r="H260" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>33</v>
+      </c>
+      <c r="B261" s="5">
+        <f>18.4/1000*B260</f>
+        <v>8.3903999999999992E-2</v>
+      </c>
+      <c r="C261" t="s">
+        <v>25</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s">
+        <v>24</v>
+      </c>
+      <c r="H261" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B262" s="5">
+        <f>0.01*B260</f>
+        <v>4.5599999999999995E-2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s">
+        <v>24</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I262" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>28</v>
+      </c>
+      <c r="B271" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B275" s="3">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" s="2"/>
+      <c r="F275" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G275" t="s">
+        <v>44</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>139</v>
+      </c>
+      <c r="B276" s="5">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="C276" t="s">
+        <v>25</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>44</v>
+      </c>
+      <c r="H276" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>33</v>
+      </c>
+      <c r="B277" s="5">
+        <f>18.4/1000*B276</f>
+        <v>4.6644000000000005E-2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="F277" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" t="s">
+        <v>24</v>
+      </c>
+      <c r="H277" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A278" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B278" s="5">
+        <f>0.01*B276</f>
+        <v>2.5350000000000001E-2</v>
+      </c>
+      <c r="C278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I278" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B279" s="5"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>28</v>
+      </c>
+      <c r="B286" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>25</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="E290" s="2"/>
+      <c r="F290" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G290" t="s">
+        <v>44</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>139</v>
+      </c>
+      <c r="B291" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="C291" t="s">
+        <v>25</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s">
+        <v>44</v>
+      </c>
+      <c r="H291" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>33</v>
+      </c>
+      <c r="B292" s="5">
+        <f>18.4/1000*B291</f>
+        <v>3.2568E-2</v>
+      </c>
+      <c r="C292" t="s">
+        <v>25</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>24</v>
+      </c>
+      <c r="H292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B293" s="5">
+        <f>0.01*B291</f>
+        <v>1.77E-2</v>
+      </c>
+      <c r="C293" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s">
+        <v>24</v>
+      </c>
+      <c r="H293" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I293" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B294" s="5"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>22</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>140</v>
       </c>
-      <c r="B187" s="5">
-        <f>0.01*B184</f>
-        <v>2.3730000000000001E-2</v>
-      </c>
-      <c r="C187" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" t="s">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s">
+        <v>108</v>
+      </c>
+      <c r="H307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>139</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s">
+        <v>18</v>
+      </c>
+      <c r="G308" t="s">
+        <v>107</v>
+      </c>
+      <c r="H308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>30</v>
+      </c>
+      <c r="B309">
+        <v>3.5098030277376187</v>
+      </c>
+      <c r="C309" t="s">
+        <v>31</v>
+      </c>
+      <c r="D309" t="s">
+        <v>15</v>
+      </c>
+      <c r="F309" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s">
+        <v>32</v>
+      </c>
+      <c r="H309" t="s">
         <v>24</v>
       </c>
-      <c r="H187" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I187" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B188" s="5"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>112</v>
+      </c>
+      <c r="B310">
+        <f>5870/44900</f>
+        <v>0.13073496659242761</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" t="s">
+        <v>16</v>
+      </c>
+      <c r="F310" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>114</v>
+      </c>
+      <c r="B311">
+        <v>1.6694063119110985E-6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>104</v>
+      </c>
+      <c r="B312">
+        <v>12.456827894327896</v>
+      </c>
+      <c r="C312" t="s">
+        <v>25</v>
+      </c>
+      <c r="D312" t="s">
+        <v>6</v>
+      </c>
+      <c r="F312" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" t="s">
+        <v>104</v>
+      </c>
+      <c r="H312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B314" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>1</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>28</v>
-      </c>
-      <c r="B195" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" t="s">
-        <v>13</v>
-      </c>
-      <c r="E199" s="2"/>
-      <c r="F199" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>46</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>138</v>
-      </c>
-      <c r="B200" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="C200" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" t="s">
-        <v>13</v>
-      </c>
-      <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>46</v>
-      </c>
-      <c r="H200" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>144</v>
-      </c>
-      <c r="B201" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D201" t="s">
-        <v>13</v>
-      </c>
-      <c r="E201" t="s">
-        <v>143</v>
-      </c>
-      <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>23</v>
-      </c>
-      <c r="I201" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>34</v>
-      </c>
-      <c r="B202" s="5">
-        <f>18.4/1000*B200</f>
-        <v>3.5511999999999995E-2</v>
-      </c>
-      <c r="C202" t="s">
-        <v>25</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
-      <c r="H202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B203" s="5">
-        <f>0.01*B200</f>
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="C203" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>24</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I203" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="5"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>1</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>28</v>
-      </c>
-      <c r="B211" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>22</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>25</v>
-      </c>
-      <c r="D215" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" s="2"/>
-      <c r="F215" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>46</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>138</v>
-      </c>
-      <c r="B216" s="5">
-        <v>2.4510000000000001</v>
-      </c>
-      <c r="C216" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s">
-        <v>46</v>
-      </c>
-      <c r="H216" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>142</v>
-      </c>
-      <c r="B217" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D217" t="s">
-        <v>13</v>
-      </c>
-      <c r="E217" t="s">
-        <v>16</v>
-      </c>
-      <c r="F217" t="s">
-        <v>17</v>
-      </c>
-      <c r="G217" t="s">
-        <v>23</v>
-      </c>
-      <c r="I217" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>34</v>
-      </c>
-      <c r="B218" s="5">
-        <f>18.4/1000*B216</f>
-        <v>4.5098400000000004E-2</v>
-      </c>
-      <c r="C218" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" t="s">
-        <v>7</v>
-      </c>
-      <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>24</v>
-      </c>
-      <c r="H218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B219" s="5">
-        <f>0.01*B216</f>
-        <v>2.4510000000000001E-2</v>
-      </c>
-      <c r="C219" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>24</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I219" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="5"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>2</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>4</v>
-      </c>
-      <c r="B224" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>28</v>
-      </c>
-      <c r="B227" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>22</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I230" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B231" s="3">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" t="s">
-        <v>13</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>46</v>
-      </c>
-      <c r="H231" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>138</v>
-      </c>
-      <c r="B232" s="5">
-        <v>2.57</v>
-      </c>
-      <c r="C232" t="s">
-        <v>25</v>
-      </c>
-      <c r="D232" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" t="s">
-        <v>46</v>
-      </c>
-      <c r="H232" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>142</v>
-      </c>
-      <c r="B233" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="D233" t="s">
-        <v>13</v>
-      </c>
-      <c r="E233" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s">
-        <v>23</v>
-      </c>
-      <c r="I233" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>34</v>
-      </c>
-      <c r="B234" s="5">
-        <f>18.4/1000*B232</f>
-        <v>4.7287999999999997E-2</v>
-      </c>
-      <c r="C234" t="s">
-        <v>25</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" t="s">
-        <v>24</v>
-      </c>
-      <c r="H234" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B235" s="5">
-        <f>0.01*B232</f>
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="C235" t="s">
-        <v>25</v>
-      </c>
-      <c r="D235" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>24</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I235" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B236" s="5"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="5"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>1</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>2</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>11</v>
-      </c>
-      <c r="B243" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>28</v>
-      </c>
-      <c r="B244" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>22</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I247" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B248" s="3">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D248" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>46</v>
-      </c>
-      <c r="H248" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>138</v>
-      </c>
-      <c r="B249" s="5">
-        <v>2.371</v>
-      </c>
-      <c r="C249" t="s">
-        <v>25</v>
-      </c>
-      <c r="D249" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>46</v>
-      </c>
-      <c r="H249" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>142</v>
-      </c>
-      <c r="B250" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D250" t="s">
-        <v>13</v>
-      </c>
-      <c r="E250" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" t="s">
-        <v>17</v>
-      </c>
-      <c r="G250" t="s">
-        <v>23</v>
-      </c>
-      <c r="I250" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>34</v>
-      </c>
-      <c r="B251" s="5">
-        <f>18.4/1000*B249</f>
-        <v>4.3626399999999996E-2</v>
-      </c>
-      <c r="C251" t="s">
-        <v>25</v>
-      </c>
-      <c r="D251" t="s">
-        <v>7</v>
-      </c>
-      <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>24</v>
-      </c>
-      <c r="H251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B252" s="5">
-        <f>0.01*B249</f>
-        <v>2.3710000000000002E-2</v>
-      </c>
-      <c r="C252" t="s">
-        <v>25</v>
-      </c>
-      <c r="D252" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>24</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I252" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B253" s="5"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>1</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>6</v>
-      </c>
-      <c r="B258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>11</v>
-      </c>
-      <c r="B259" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>28</v>
-      </c>
-      <c r="B260" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>22</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H263" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B264" s="3">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>25</v>
-      </c>
-      <c r="D264" t="s">
-        <v>13</v>
-      </c>
-      <c r="E264" s="2"/>
-      <c r="F264" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s">
-        <v>46</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>138</v>
-      </c>
-      <c r="B265" s="5">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C265" t="s">
-        <v>25</v>
-      </c>
-      <c r="D265" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>46</v>
-      </c>
-      <c r="H265" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>142</v>
-      </c>
-      <c r="B266" s="5">
-        <v>3.11</v>
-      </c>
-      <c r="D266" t="s">
-        <v>13</v>
-      </c>
-      <c r="E266" t="s">
-        <v>16</v>
-      </c>
-      <c r="F266" t="s">
-        <v>17</v>
-      </c>
-      <c r="G266" t="s">
-        <v>23</v>
-      </c>
-      <c r="I266" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>34</v>
-      </c>
-      <c r="B267" s="5">
-        <f>18.4/1000*B265</f>
-        <v>8.3903999999999992E-2</v>
-      </c>
-      <c r="C267" t="s">
-        <v>25</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-      <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>24</v>
-      </c>
-      <c r="H267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B268" s="5">
-        <f>0.01*B265</f>
-        <v>4.5599999999999995E-2</v>
-      </c>
-      <c r="C268" t="s">
-        <v>25</v>
-      </c>
-      <c r="D268" t="s">
-        <v>13</v>
-      </c>
-      <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>24</v>
-      </c>
-      <c r="H268" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I268" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B269" s="5"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B270" s="5"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>2</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>28</v>
-      </c>
-      <c r="B277" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>22</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I280" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B281" s="3">
-        <v>1</v>
-      </c>
-      <c r="C281" t="s">
-        <v>25</v>
-      </c>
-      <c r="D281" t="s">
-        <v>13</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s">
-        <v>46</v>
-      </c>
-      <c r="H281" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>138</v>
-      </c>
-      <c r="B282" s="5">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="C282" t="s">
-        <v>25</v>
-      </c>
-      <c r="D282" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>46</v>
-      </c>
-      <c r="H282" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>142</v>
-      </c>
-      <c r="B283" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="D283" t="s">
-        <v>13</v>
-      </c>
-      <c r="E283" t="s">
-        <v>16</v>
-      </c>
-      <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
-        <v>23</v>
-      </c>
-      <c r="I283" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>34</v>
-      </c>
-      <c r="B284" s="5">
-        <f>18.4/1000*B282</f>
-        <v>4.6644000000000005E-2</v>
-      </c>
-      <c r="C284" t="s">
-        <v>25</v>
-      </c>
-      <c r="D284" t="s">
-        <v>7</v>
-      </c>
-      <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>24</v>
-      </c>
-      <c r="H284" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B285" s="5">
-        <f>0.01*B282</f>
-        <v>2.5350000000000001E-2</v>
-      </c>
-      <c r="C285" t="s">
-        <v>25</v>
-      </c>
-      <c r="D285" t="s">
-        <v>13</v>
-      </c>
-      <c r="F285" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
-      <c r="H285" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I285" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B286" s="5"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>2</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>28</v>
-      </c>
-      <c r="B293" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>22</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B297" s="3">
-        <v>1</v>
-      </c>
-      <c r="C297" t="s">
-        <v>25</v>
-      </c>
-      <c r="D297" t="s">
-        <v>13</v>
-      </c>
-      <c r="E297" s="2"/>
-      <c r="F297" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="s">
-        <v>46</v>
-      </c>
-      <c r="H297" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>138</v>
-      </c>
-      <c r="B298" s="5">
-        <v>1.77</v>
-      </c>
-      <c r="C298" t="s">
-        <v>25</v>
-      </c>
-      <c r="D298" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" t="s">
-        <v>46</v>
-      </c>
-      <c r="H298" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>144</v>
-      </c>
-      <c r="B299" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D299" t="s">
-        <v>13</v>
-      </c>
-      <c r="E299" t="s">
-        <v>143</v>
-      </c>
-      <c r="F299" t="s">
-        <v>17</v>
-      </c>
-      <c r="G299" t="s">
-        <v>23</v>
-      </c>
-      <c r="I299" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>34</v>
-      </c>
-      <c r="B300" s="5">
-        <f>18.4/1000*B298</f>
-        <v>3.2568E-2</v>
-      </c>
-      <c r="C300" t="s">
-        <v>25</v>
-      </c>
-      <c r="D300" t="s">
-        <v>7</v>
-      </c>
-      <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
-        <v>24</v>
-      </c>
-      <c r="H300" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B301" s="5">
-        <f>0.01*B298</f>
-        <v>1.77E-2</v>
-      </c>
-      <c r="C301" t="s">
-        <v>25</v>
-      </c>
-      <c r="D301" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" t="s">
-        <v>14</v>
-      </c>
-      <c r="G301" t="s">
-        <v>24</v>
-      </c>
-      <c r="H301" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I301" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B302" s="5"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>1</v>
-      </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>28</v>
-      </c>
-      <c r="B305" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>2</v>
-      </c>
-      <c r="B306" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>4</v>
-      </c>
-      <c r="B307" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>6</v>
-      </c>
-      <c r="B308" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>22</v>
-      </c>
-      <c r="B309" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>11</v>
-      </c>
-      <c r="B310" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>28</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>22</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>139</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
-      <c r="C315" t="s">
-        <v>25</v>
-      </c>
-      <c r="D315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>120</v>
-      </c>
-      <c r="H315" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>138</v>
-      </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-      <c r="C316" t="s">
-        <v>25</v>
-      </c>
-      <c r="D316" t="s">
-        <v>13</v>
-      </c>
-      <c r="F316" t="s">
-        <v>18</v>
-      </c>
-      <c r="G316" t="s">
-        <v>119</v>
-      </c>
-      <c r="H316" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B316" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>30</v>
-      </c>
-      <c r="B317">
-        <v>3.5098030277376187</v>
-      </c>
-      <c r="C317" t="s">
-        <v>31</v>
-      </c>
-      <c r="D317" t="s">
-        <v>15</v>
-      </c>
-      <c r="F317" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" t="s">
-        <v>32</v>
-      </c>
-      <c r="H317" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>142</v>
-      </c>
-      <c r="B318">
-        <v>0.13206758828730655</v>
-      </c>
-      <c r="D318" t="s">
-        <v>13</v>
-      </c>
-      <c r="E318" t="s">
-        <v>16</v>
-      </c>
-      <c r="F318" t="s">
-        <v>17</v>
-      </c>
-      <c r="H318" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>33</v>
-      </c>
-      <c r="B319">
-        <v>1.6694063119110985E-6</v>
-      </c>
-      <c r="D319" t="s">
-        <v>13</v>
-      </c>
-      <c r="E319" t="s">
-        <v>16</v>
-      </c>
-      <c r="F319" t="s">
-        <v>17</v>
-      </c>
-      <c r="H319" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B319" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>115</v>
-      </c>
-      <c r="B320">
-        <v>12.456827894327896</v>
-      </c>
-      <c r="C320" t="s">
-        <v>25</v>
-      </c>
-      <c r="D320" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>22</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s">
         <v>6</v>
       </c>
-      <c r="F320" t="s">
-        <v>14</v>
-      </c>
-      <c r="G320" t="s">
-        <v>115</v>
-      </c>
-      <c r="H320" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>1</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>12</v>
+      </c>
+      <c r="F323" t="s">
+        <v>4</v>
+      </c>
+      <c r="G323" t="s">
+        <v>2</v>
+      </c>
+      <c r="H323" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>2</v>
-      </c>
-      <c r="B324" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>4</v>
-      </c>
-      <c r="B325" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>6</v>
-      </c>
-      <c r="B326" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>11</v>
-      </c>
-      <c r="B327" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>28</v>
-      </c>
-      <c r="B328" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>22</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>9</v>
-      </c>
-      <c r="B331" t="s">
-        <v>10</v>
-      </c>
-      <c r="C331" t="s">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s">
-        <v>6</v>
-      </c>
-      <c r="E331" t="s">
-        <v>12</v>
-      </c>
-      <c r="F331" t="s">
-        <v>4</v>
-      </c>
-      <c r="G331" t="s">
-        <v>2</v>
-      </c>
-      <c r="H331" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>115</v>
-      </c>
-      <c r="B332">
+        <v>104</v>
+      </c>
+      <c r="B324">
         <f>12.89</f>
         <v>12.89</v>
       </c>
-      <c r="C332" t="s">
-        <v>25</v>
-      </c>
-      <c r="D332" t="s">
+      <c r="C324" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" t="s">
         <v>6</v>
       </c>
-      <c r="F332" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" t="s">
-        <v>115</v>
-      </c>
-      <c r="H332" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>139</v>
-      </c>
-      <c r="B333">
+      <c r="F324" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s">
+        <v>104</v>
+      </c>
+      <c r="H324" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>140</v>
+      </c>
+      <c r="B325">
         <v>1</v>
       </c>
-      <c r="C333" t="s">
-        <v>25</v>
-      </c>
-      <c r="D333" t="s">
-        <v>13</v>
-      </c>
-      <c r="F333" t="s">
+      <c r="C325" t="s">
+        <v>25</v>
+      </c>
+      <c r="D325" t="s">
+        <v>13</v>
+      </c>
+      <c r="F325" t="s">
         <v>18</v>
       </c>
-      <c r="G333" t="s">
-        <v>120</v>
-      </c>
-      <c r="H333" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>47</v>
-      </c>
-      <c r="B334" s="5">
+      <c r="G325" t="s">
+        <v>108</v>
+      </c>
+      <c r="H325" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>45</v>
+      </c>
+      <c r="B326" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
-      <c r="C334" t="s">
-        <v>48</v>
-      </c>
-      <c r="D334" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>49</v>
-      </c>
-      <c r="H334" t="s">
+      <c r="C326" t="s">
+        <v>46</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>47</v>
+      </c>
+      <c r="H326" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>34</v>
-      </c>
-      <c r="B335" s="5">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>33</v>
+      </c>
+      <c r="B327" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
-      <c r="C335" t="s">
-        <v>25</v>
-      </c>
-      <c r="D335" t="s">
+      <c r="C327" t="s">
+        <v>25</v>
+      </c>
+      <c r="D327" t="s">
         <v>7</v>
       </c>
-      <c r="F335" t="s">
-        <v>14</v>
-      </c>
-      <c r="G335" t="s">
+      <c r="F327" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s">
         <v>20</v>
       </c>
-      <c r="H335" t="s">
+      <c r="H327" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>35</v>
-      </c>
-      <c r="B336" s="5">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>34</v>
+      </c>
+      <c r="B328" s="5">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C328" t="s">
         <v>26</v>
       </c>
-      <c r="D336" t="s">
-        <v>13</v>
-      </c>
-      <c r="F336" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" t="s">
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>35</v>
+      </c>
+      <c r="H328" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>36</v>
       </c>
-      <c r="H336" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>37</v>
-      </c>
-      <c r="B337" s="5">
+      <c r="B329" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C329" t="s">
         <v>26</v>
       </c>
-      <c r="D337" t="s">
-        <v>13</v>
-      </c>
-      <c r="F337" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" t="s">
+      <c r="D329" t="s">
+        <v>13</v>
+      </c>
+      <c r="F329" t="s">
+        <v>14</v>
+      </c>
+      <c r="G329" t="s">
+        <v>37</v>
+      </c>
+      <c r="H329" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>38</v>
       </c>
-      <c r="H337" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>39</v>
-      </c>
-      <c r="B338" s="5">
+      <c r="B330" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C330" t="s">
+        <v>39</v>
+      </c>
+      <c r="D330" t="s">
+        <v>13</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
         <v>40</v>
       </c>
-      <c r="D338" t="s">
-        <v>13</v>
-      </c>
-      <c r="F338" t="s">
-        <v>14</v>
-      </c>
-      <c r="G338" t="s">
-        <v>41</v>
-      </c>
-      <c r="H338" t="s">
+      <c r="H330" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B339" s="5">
+    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A331" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B331" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
-      <c r="C339" t="s">
-        <v>25</v>
-      </c>
-      <c r="D339" t="s">
-        <v>13</v>
-      </c>
-      <c r="F339" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H339" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B340" s="5">
-        <f>75900000/44900000</f>
-        <v>1.6904231625835189</v>
-      </c>
-      <c r="C340" t="s">
-        <v>25</v>
-      </c>
-      <c r="D340" t="s">
-        <v>13</v>
-      </c>
-      <c r="F340" t="s">
-        <v>14</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H340" t="s">
-        <v>43</v>
+      <c r="C331" t="s">
+        <v>25</v>
+      </c>
+      <c r="D331" t="s">
+        <v>13</v>
+      </c>
+      <c r="F331" t="s">
+        <v>14</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H331" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B332" s="5">
+        <v>-1.69</v>
+      </c>
+      <c r="D332" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" t="s">
+        <v>16</v>
+      </c>
+      <c r="F332" t="s">
+        <v>17</v>
+      </c>
+      <c r="G332" s="4"/>
+      <c r="H332" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B294" r:id="rId1"/>
-    <hyperlink ref="B278" r:id="rId2"/>
-    <hyperlink ref="B261" r:id="rId3"/>
-    <hyperlink ref="B245" r:id="rId4"/>
-    <hyperlink ref="B228" r:id="rId5"/>
-    <hyperlink ref="B212" r:id="rId6"/>
-    <hyperlink ref="B196" r:id="rId7"/>
+    <hyperlink ref="B287" r:id="rId1"/>
+    <hyperlink ref="B272" r:id="rId2"/>
+    <hyperlink ref="B256" r:id="rId3"/>
+    <hyperlink ref="B241" r:id="rId4"/>
+    <hyperlink ref="B225" r:id="rId5"/>
+    <hyperlink ref="B210" r:id="rId6"/>
+    <hyperlink ref="B195" r:id="rId7"/>
     <hyperlink ref="B180" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -15,12 +15,12 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
   <si>
     <t>Activity</t>
   </si>
@@ -121,9 +121,6 @@
     <t>heat, from steam, in chemical industry</t>
   </si>
   <si>
-    <t>Carbon monoxide, non-fossil</t>
-  </si>
-  <si>
     <t>market group for electricity, low voltage</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>Car db</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>treatment of wastewater, average, capacity 1E9l/year</t>
   </si>
   <si>
-    <t>To close the carbon balance, as there is 1.55 kg of CO2 per kg of methanol.</t>
-  </si>
-  <si>
     <t>hydrogen, 4kg per ton of methanol processed</t>
   </si>
   <si>
@@ -259,39 +250,15 @@
     <t>liquefied petroleum gas, synthetic</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 6.3%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 9%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>gasoline, synthetic</t>
   </si>
   <si>
     <t>diesel, synthetic</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 47%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 87.8%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 37%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 38.8%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>kerosene, synthetic</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
@@ -370,11 +337,6 @@
     <t>methanol production facility, construction</t>
   </si>
   <si>
-    <t>Adapted from Comparative well-to-wheel life cycle assessment of
-OME3–5 synfuel production via the power-to-liquid
-pathway, Hank et al. 2019</t>
-  </si>
-  <si>
     <t>Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway. Christoph Hank, Lukas Lazar, Franz Mantei, Mohamed Ouda, Robin J. White, Tom Smolinka, Achim Schaadt, Christopher Hebling and Hans-Martin Henning. 2019. https://doi.org/10.1039/C9SE00658C</t>
   </si>
   <si>
@@ -390,73 +352,100 @@
     <t>Methanol-based fuels from coal</t>
   </si>
   <si>
-    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>kerosene production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>diesel production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>gasoline production, from methanol, hydrogen from coal gasification, CO2 from DAC, economic allocation</t>
-  </si>
-  <si>
-    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>kerosene production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>diesel production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>gasoline production, from methanol, hydrogen from coal gasification, CO2 from DAC, energy allocation</t>
-  </si>
-  <si>
-    <t>methanol distillation, hydrogen from coal gasification, CO2 from DAC</t>
-  </si>
-  <si>
-    <t>methanol synthesis, hydrogen from coal gasification, CO2 from DAC</t>
-  </si>
-  <si>
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
     <t>Hydrogen, gaseous, 30 bar</t>
   </si>
   <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019
+The hydrogen process (coal gasification) releases 18.024 kg CO2 per kg H2. Here, 0.139 kg H2 are needed, corresponding to 2.5 kg CO2 released from the gasification process.
+1.69 kg out of the 2.5 kg CO2 are redirected as CO2 input in the methanol synthesis process. This means that these 1.69 kg are not emitted.
+Hence, a 1.69 kg CO2 correction is added.</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, fossil</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>kerosene production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>kerosene production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>gasoline production, synthetic, from methanol, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 37%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 38.8%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 47%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, LPG and kerosene, but optimized for gasoline production. Allocation key for gasoline: 87.8%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 9%.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.01 kg/kg fuel. Co-product of Methanol-to-Gasoline process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with diesel, gasoline and kerosene, but optimized for diesel and kerosene. Allocation key for LPG: 6.3%.</t>
+  </si>
+  <si>
+    <t>methanol distillation, hydrogen from coal gasification</t>
+  </si>
+  <si>
+    <t>methanol synthesis, hydrogen from coal gasification</t>
   </si>
 </sst>
 </file>
@@ -603,7 +592,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -638,7 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -977,69 +965,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1071,7 +1059,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1141,7 +1129,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1176,7 +1164,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1223,43 +1211,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1291,7 +1279,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1361,7 +1349,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1396,7 +1384,7 @@
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1431,46 +1419,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1504,7 +1492,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1580,7 +1568,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1618,7 +1606,7 @@
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1656,46 +1644,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1729,7 +1717,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1805,7 +1793,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1843,7 +1831,7 @@
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1886,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K341"/>
+  <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1913,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1937,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1981,13 +1969,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1998,7 +1986,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2019,15 +2007,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2047,12 +2035,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2077,13 +2065,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2097,12 +2085,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2122,12 +2110,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2147,12 +2135,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2172,18 +2160,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2197,18 +2185,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2222,21 +2210,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2247,12 +2235,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2261,7 +2249,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2272,18 +2260,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2297,7 +2285,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2318,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2342,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2386,13 +2374,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
         <v>50</v>
-      </c>
-      <c r="H31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2403,7 +2391,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2424,15 +2412,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2452,12 +2440,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2482,13 +2470,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2502,12 +2490,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2527,12 +2515,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2552,12 +2540,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2577,18 +2565,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2602,18 +2590,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2627,21 +2615,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2652,12 +2640,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2666,7 +2654,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2677,18 +2665,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2702,7 +2690,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2723,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2747,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2791,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
         <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" t="s">
-        <v>52</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2808,7 +2796,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2829,15 +2817,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2857,12 +2845,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2887,13 +2875,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2907,12 +2895,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2932,12 +2920,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2957,12 +2945,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2982,18 +2970,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -3007,18 +2995,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3032,21 +3020,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3057,12 +3045,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3071,7 +3059,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3082,18 +3070,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3107,7 +3095,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3128,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3152,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3196,13 +3184,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
         <v>50</v>
-      </c>
-      <c r="H73" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73" t="s">
-        <v>52</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3213,7 +3201,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3234,15 +3222,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3262,12 +3250,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3292,13 +3280,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3312,12 +3300,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3337,12 +3325,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3362,12 +3350,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3387,18 +3375,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3412,18 +3400,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3437,21 +3425,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3462,12 +3450,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3476,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3487,18 +3475,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3512,7 +3500,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3546,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3570,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -3614,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" t="s">
         <v>50</v>
-      </c>
-      <c r="H95" t="s">
-        <v>51</v>
-      </c>
-      <c r="I95" t="s">
-        <v>52</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3631,7 +3619,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3652,15 +3640,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3680,12 +3668,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3710,13 +3698,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3730,12 +3718,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3755,12 +3743,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3780,12 +3768,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3805,18 +3793,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3830,18 +3818,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3855,21 +3843,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3880,12 +3868,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3894,7 +3882,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3905,18 +3893,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3930,7 +3918,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -3951,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -3975,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -4019,13 +4007,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
+        <v>48</v>
+      </c>
+      <c r="H116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I116" t="s">
         <v>50</v>
-      </c>
-      <c r="H116" t="s">
-        <v>51</v>
-      </c>
-      <c r="I116" t="s">
-        <v>52</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4036,7 +4024,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4057,15 +4045,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4085,12 +4073,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4115,13 +4103,13 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4135,12 +4123,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4160,12 +4148,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4185,12 +4173,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4210,18 +4198,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4235,18 +4223,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4260,21 +4248,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4285,12 +4273,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4299,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4310,18 +4298,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4335,7 +4323,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -4356,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -4380,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -4424,13 +4412,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
+        <v>48</v>
+      </c>
+      <c r="H137" t="s">
+        <v>49</v>
+      </c>
+      <c r="I137" t="s">
         <v>50</v>
-      </c>
-      <c r="H137" t="s">
-        <v>51</v>
-      </c>
-      <c r="I137" t="s">
-        <v>52</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4441,7 +4429,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4462,15 +4450,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4490,12 +4478,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4520,13 +4508,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4540,12 +4528,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4565,12 +4553,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4590,12 +4578,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4615,18 +4603,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4640,18 +4628,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4665,21 +4653,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4690,12 +4678,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4704,7 +4692,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4715,18 +4703,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4740,7 +4728,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -4761,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -4785,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -4829,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
+        <v>48</v>
+      </c>
+      <c r="H158" t="s">
+        <v>49</v>
+      </c>
+      <c r="I158" t="s">
         <v>50</v>
-      </c>
-      <c r="H158" t="s">
-        <v>51</v>
-      </c>
-      <c r="I158" t="s">
-        <v>52</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4846,7 +4834,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4867,15 +4855,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4895,12 +4883,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4925,13 +4913,13 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4945,12 +4933,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4970,12 +4958,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4995,12 +4983,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5020,18 +5008,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5045,18 +5033,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5070,21 +5058,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5095,12 +5083,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5109,7 +5097,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5120,18 +5108,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5145,7 +5133,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -5179,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -5195,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -5227,7 +5215,7 @@
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -5235,7 +5223,7 @@
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -5274,7 +5262,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5290,15 +5278,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5313,48 +5301,49 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H184" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B185" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185" t="s">
-        <v>16</v>
-      </c>
-      <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
-      <c r="I185" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>34</v>
-      </c>
-      <c r="B186" s="5">
         <f>18.4/1000*B184</f>
         <v>4.3663200000000006E-2</v>
       </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B186" s="5">
+        <f>0.01*B184</f>
+        <v>2.3730000000000001E-2</v>
+      </c>
       <c r="C186" t="s">
         <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -5362,144 +5351,144 @@
       <c r="G186" t="s">
         <v>24</v>
       </c>
-      <c r="H186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B187" s="5">
-        <f>0.01*B184</f>
-        <v>2.3730000000000001E-2</v>
-      </c>
-      <c r="C187" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I187" t="s">
-        <v>74</v>
-      </c>
+      <c r="H186" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I186" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B188" s="5"/>
+      <c r="A188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>125</v>
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>28</v>
-      </c>
-      <c r="B195" t="s">
-        <v>89</v>
+        <v>22</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>77</v>
+      <c r="A196" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>28</v>
+      <c r="A198" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" t="s">
+        <v>44</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1</v>
+      <c r="A199" t="s">
+        <v>139</v>
+      </c>
+      <c r="B199" s="5">
+        <v>1.93</v>
       </c>
       <c r="C199" t="s">
         <v>25</v>
@@ -5507,2042 +5496,1830 @@
       <c r="D199" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="2"/>
-      <c r="F199" s="3" t="s">
-        <v>18</v>
+      <c r="F199" t="s">
+        <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
+      </c>
+      <c r="H199" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="B200" s="5">
-        <v>1.93</v>
+        <f>18.4/1000*B199</f>
+        <v>3.5511999999999995E-2</v>
       </c>
       <c r="C200" t="s">
         <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H200" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>144</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B201" s="5">
-        <v>0.5</v>
+        <f>0.01*B199</f>
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
       </c>
-      <c r="E201" t="s">
-        <v>143</v>
-      </c>
       <c r="F201" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G201" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I201" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>34</v>
-      </c>
-      <c r="B202" s="5">
-        <f>18.4/1000*B200</f>
-        <v>3.5511999999999995E-2</v>
-      </c>
-      <c r="C202" t="s">
-        <v>25</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
-      <c r="H202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B203" s="5">
-        <f>0.01*B200</f>
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="C203" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>24</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I203" t="s">
-        <v>74</v>
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B204" s="5"/>
+      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>135</v>
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B210" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="D212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I212" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B211" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>22</v>
-      </c>
-      <c r="B212" s="8" t="s">
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" t="s">
+        <v>44</v>
+      </c>
+      <c r="H213" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
+      <c r="A214" t="s">
+        <v>139</v>
+      </c>
+      <c r="B214" s="5">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="C214" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>44</v>
+      </c>
+      <c r="H214" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>33</v>
+      </c>
+      <c r="B215" s="5">
+        <f>18.4/1000*B214</f>
+        <v>4.5098400000000004E-2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s">
+        <v>24</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" s="5">
+        <f>0.01*B214</f>
+        <v>2.4510000000000001E-2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>25</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s">
+        <v>24</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I216" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>25</v>
-      </c>
-      <c r="D215" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" s="2"/>
-      <c r="F215" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>46</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>138</v>
-      </c>
-      <c r="B216" s="5">
-        <v>2.4510000000000001</v>
-      </c>
-      <c r="C216" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s">
-        <v>46</v>
-      </c>
-      <c r="H216" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>142</v>
-      </c>
-      <c r="B217" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D217" t="s">
-        <v>13</v>
-      </c>
-      <c r="E217" t="s">
-        <v>16</v>
-      </c>
-      <c r="F217" t="s">
-        <v>17</v>
-      </c>
-      <c r="G217" t="s">
-        <v>23</v>
-      </c>
-      <c r="I217" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>34</v>
-      </c>
-      <c r="B218" s="5">
-        <f>18.4/1000*B216</f>
-        <v>4.5098400000000004E-2</v>
-      </c>
-      <c r="C218" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" t="s">
-        <v>7</v>
-      </c>
-      <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>24</v>
-      </c>
-      <c r="H218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B219" s="5">
-        <f>0.01*B216</f>
-        <v>2.4510000000000001E-2</v>
-      </c>
-      <c r="C219" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>24</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I219" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B220" s="5"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>127</v>
+      <c r="B221" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>2</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B225" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="E227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I227" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B227" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>22</v>
-      </c>
-      <c r="B228" s="8" t="s">
+      <c r="A228" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B228" s="3">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="s">
+        <v>44</v>
+      </c>
+      <c r="H228" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
-        <v>8</v>
+      <c r="A229" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" s="5">
+        <v>2.57</v>
+      </c>
+      <c r="C229" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s">
+        <v>44</v>
+      </c>
+      <c r="H229" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="A230" t="s">
+        <v>33</v>
+      </c>
+      <c r="B230" s="5">
+        <f>18.4/1000*B229</f>
+        <v>4.7287999999999997E-2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s">
+        <v>24</v>
+      </c>
+      <c r="H230" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B231" s="5">
+        <f>0.01*B229</f>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s">
+        <v>24</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I231" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>6</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I230" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B231" s="3">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" t="s">
-        <v>13</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>46</v>
-      </c>
-      <c r="H231" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>138</v>
-      </c>
-      <c r="B232" s="5">
-        <v>2.57</v>
-      </c>
-      <c r="C232" t="s">
-        <v>25</v>
-      </c>
-      <c r="D232" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" t="s">
-        <v>46</v>
-      </c>
-      <c r="H232" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>142</v>
-      </c>
-      <c r="B233" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="D233" t="s">
-        <v>13</v>
-      </c>
-      <c r="E233" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s">
-        <v>23</v>
-      </c>
-      <c r="I233" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>34</v>
-      </c>
-      <c r="B234" s="5">
-        <f>18.4/1000*B232</f>
-        <v>4.7287999999999997E-2</v>
-      </c>
-      <c r="C234" t="s">
-        <v>25</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" t="s">
-        <v>24</v>
-      </c>
-      <c r="H234" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B235" s="5">
-        <f>0.01*B232</f>
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="C235" t="s">
-        <v>25</v>
-      </c>
-      <c r="D235" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>24</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I235" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B236" s="5"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B237" s="5"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>137</v>
+      <c r="B238" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>2</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>81</v>
+        <v>28</v>
+      </c>
+      <c r="B240" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>11</v>
-      </c>
-      <c r="B243" t="s">
-        <v>25</v>
+      <c r="G243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>28</v>
-      </c>
-      <c r="B244" t="s">
-        <v>83</v>
+      <c r="A244" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" t="s">
+        <v>44</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>22</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>77</v>
+        <v>139</v>
+      </c>
+      <c r="B245" s="5">
+        <v>2.371</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" t="s">
+        <v>44</v>
+      </c>
+      <c r="H245" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I247" s="2" t="s">
-        <v>28</v>
+      <c r="A246" t="s">
+        <v>33</v>
+      </c>
+      <c r="B246" s="5">
+        <f>18.4/1000*B245</f>
+        <v>4.3626399999999996E-2</v>
+      </c>
+      <c r="C246" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" t="s">
+        <v>24</v>
+      </c>
+      <c r="H246" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B247" s="5">
+        <f>0.01*B245</f>
+        <v>2.3710000000000002E-2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s">
+        <v>24</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I247" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B248" s="3">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D248" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>46</v>
-      </c>
-      <c r="H248" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>138</v>
-      </c>
-      <c r="B249" s="5">
-        <v>2.371</v>
-      </c>
-      <c r="C249" t="s">
-        <v>25</v>
-      </c>
-      <c r="D249" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>46</v>
-      </c>
-      <c r="H249" t="s">
-        <v>119</v>
+      <c r="A249" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>142</v>
-      </c>
-      <c r="B250" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D250" t="s">
-        <v>13</v>
-      </c>
-      <c r="E250" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" t="s">
-        <v>17</v>
-      </c>
-      <c r="G250" t="s">
-        <v>23</v>
-      </c>
-      <c r="I250" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>34</v>
-      </c>
-      <c r="B251" s="5">
-        <f>18.4/1000*B249</f>
-        <v>4.3626399999999996E-2</v>
-      </c>
-      <c r="C251" t="s">
-        <v>25</v>
-      </c>
-      <c r="D251" t="s">
-        <v>7</v>
-      </c>
-      <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>24</v>
-      </c>
-      <c r="H251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A252" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B252" s="5">
-        <f>0.01*B249</f>
-        <v>2.3710000000000002E-2</v>
-      </c>
-      <c r="C252" t="s">
-        <v>25</v>
-      </c>
-      <c r="D252" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>24</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I252" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B253" s="5"/>
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>129</v>
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B255" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B256" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>6</v>
-      </c>
-      <c r="B258" t="s">
-        <v>13</v>
+      <c r="I258" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>11</v>
-      </c>
-      <c r="B259" t="s">
-        <v>25</v>
+      <c r="A259" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G259" t="s">
+        <v>44</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>28</v>
-      </c>
-      <c r="B260" t="s">
-        <v>84</v>
+        <v>139</v>
+      </c>
+      <c r="B260" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C260" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s">
+        <v>44</v>
+      </c>
+      <c r="H260" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>22</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A262" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B261" s="5">
+        <f>18.4/1000*B260</f>
+        <v>8.3903999999999992E-2</v>
+      </c>
+      <c r="C261" t="s">
+        <v>25</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s">
+        <v>24</v>
+      </c>
+      <c r="H261" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B262" s="5">
+        <f>0.01*B260</f>
+        <v>4.5599999999999995E-2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s">
+        <v>24</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I262" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H263" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B264" s="3">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>25</v>
-      </c>
-      <c r="D264" t="s">
-        <v>13</v>
-      </c>
-      <c r="E264" s="2"/>
-      <c r="F264" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s">
-        <v>46</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>138</v>
-      </c>
-      <c r="B265" s="5">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C265" t="s">
-        <v>25</v>
-      </c>
-      <c r="D265" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>46</v>
-      </c>
-      <c r="H265" t="s">
-        <v>119</v>
+      <c r="A265" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>142</v>
-      </c>
-      <c r="B266" s="5">
-        <v>3.11</v>
-      </c>
-      <c r="D266" t="s">
-        <v>13</v>
-      </c>
-      <c r="E266" t="s">
-        <v>16</v>
-      </c>
-      <c r="F266" t="s">
-        <v>17</v>
-      </c>
-      <c r="G266" t="s">
-        <v>23</v>
-      </c>
-      <c r="I266" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>34</v>
-      </c>
-      <c r="B267" s="5">
-        <f>18.4/1000*B265</f>
-        <v>8.3903999999999992E-2</v>
-      </c>
-      <c r="C267" t="s">
-        <v>25</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-      <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>24</v>
-      </c>
-      <c r="H267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B268" s="5">
-        <f>0.01*B265</f>
-        <v>4.5599999999999995E-2</v>
-      </c>
-      <c r="C268" t="s">
-        <v>25</v>
-      </c>
-      <c r="D268" t="s">
-        <v>13</v>
-      </c>
-      <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>24</v>
-      </c>
-      <c r="H268" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I268" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B269" s="5"/>
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B270" s="5"/>
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>131</v>
+      <c r="A271" t="s">
+        <v>28</v>
+      </c>
+      <c r="B271" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B275" s="3">
         <v>1</v>
       </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>2</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" t="s">
-        <v>13</v>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" s="2"/>
+      <c r="F275" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G275" t="s">
+        <v>44</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" t="s">
-        <v>25</v>
+        <v>139</v>
+      </c>
+      <c r="B276" s="5">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="C276" t="s">
+        <v>25</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>44</v>
+      </c>
+      <c r="H276" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>28</v>
-      </c>
-      <c r="B277" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>22</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="B277" s="5">
+        <f>18.4/1000*B276</f>
+        <v>4.6644000000000005E-2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="F277" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" t="s">
+        <v>24</v>
+      </c>
+      <c r="H277" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A278" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B278" s="5">
+        <f>0.01*B276</f>
+        <v>2.5350000000000001E-2</v>
+      </c>
+      <c r="C278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I278" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I280" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B281" s="3">
+      <c r="A281" t="s">
         <v>1</v>
       </c>
-      <c r="C281" t="s">
-        <v>25</v>
-      </c>
-      <c r="D281" t="s">
-        <v>13</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s">
-        <v>46</v>
-      </c>
-      <c r="H281" s="3" t="s">
-        <v>78</v>
+      <c r="B281">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>138</v>
-      </c>
-      <c r="B282" s="5">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="C282" t="s">
-        <v>25</v>
-      </c>
-      <c r="D282" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>46</v>
-      </c>
-      <c r="H282" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>142</v>
-      </c>
-      <c r="B283" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="D283" t="s">
-        <v>13</v>
-      </c>
-      <c r="E283" t="s">
-        <v>16</v>
-      </c>
-      <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
-        <v>23</v>
-      </c>
-      <c r="I283" t="s">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>34</v>
-      </c>
-      <c r="B284" s="5">
-        <f>18.4/1000*B282</f>
-        <v>4.6644000000000005E-2</v>
-      </c>
-      <c r="C284" t="s">
-        <v>25</v>
-      </c>
-      <c r="D284" t="s">
-        <v>7</v>
-      </c>
-      <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>24</v>
-      </c>
-      <c r="H284" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A285" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B285" s="5">
-        <f>0.01*B282</f>
-        <v>2.5350000000000001E-2</v>
-      </c>
-      <c r="C285" t="s">
-        <v>25</v>
-      </c>
-      <c r="D285" t="s">
-        <v>13</v>
-      </c>
-      <c r="F285" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
-      <c r="H285" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>28</v>
+      </c>
+      <c r="B286" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B286" s="5"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="A288" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B290" s="3">
         <v>1</v>
       </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>2</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
+      <c r="C290" t="s">
+        <v>25</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="E290" s="2"/>
+      <c r="F290" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G290" t="s">
+        <v>44</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" t="s">
-        <v>13</v>
+        <v>139</v>
+      </c>
+      <c r="B291" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="C291" t="s">
+        <v>25</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s">
+        <v>44</v>
+      </c>
+      <c r="H291" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>28</v>
-      </c>
-      <c r="B293" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="B292" s="5">
+        <f>18.4/1000*B291</f>
+        <v>3.2568E-2</v>
+      </c>
+      <c r="C292" t="s">
+        <v>25</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>24</v>
+      </c>
+      <c r="H292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B293" s="5">
+        <f>0.01*B291</f>
+        <v>1.77E-2</v>
+      </c>
+      <c r="C293" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s">
+        <v>24</v>
+      </c>
+      <c r="H293" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I293" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>22</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I296" s="2" t="s">
+      <c r="A296" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B297" s="3">
-        <v>1</v>
-      </c>
-      <c r="C297" t="s">
-        <v>25</v>
-      </c>
-      <c r="D297" t="s">
-        <v>13</v>
-      </c>
-      <c r="E297" s="2"/>
-      <c r="F297" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="s">
-        <v>46</v>
-      </c>
-      <c r="H297" s="3" t="s">
-        <v>78</v>
+      <c r="B297" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>138</v>
-      </c>
-      <c r="B298" s="5">
-        <v>1.77</v>
-      </c>
-      <c r="C298" t="s">
-        <v>25</v>
-      </c>
-      <c r="D298" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" t="s">
-        <v>46</v>
-      </c>
-      <c r="H298" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="B298" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>144</v>
-      </c>
-      <c r="B299" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D299" t="s">
-        <v>13</v>
-      </c>
-      <c r="E299" t="s">
-        <v>143</v>
-      </c>
-      <c r="F299" t="s">
-        <v>17</v>
-      </c>
-      <c r="G299" t="s">
-        <v>23</v>
-      </c>
-      <c r="I299" t="s">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>34</v>
-      </c>
-      <c r="B300" s="5">
-        <f>18.4/1000*B298</f>
-        <v>3.2568E-2</v>
-      </c>
-      <c r="C300" t="s">
-        <v>25</v>
-      </c>
-      <c r="D300" t="s">
-        <v>7</v>
-      </c>
-      <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
-        <v>24</v>
-      </c>
-      <c r="H300" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A301" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B301" s="5">
-        <f>0.01*B298</f>
-        <v>1.77E-2</v>
-      </c>
-      <c r="C301" t="s">
-        <v>25</v>
-      </c>
-      <c r="D301" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" t="s">
-        <v>14</v>
-      </c>
-      <c r="G301" t="s">
-        <v>24</v>
-      </c>
-      <c r="H301" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I301" t="s">
-        <v>74</v>
+        <v>6</v>
+      </c>
+      <c r="B300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B302" s="5"/>
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>138</v>
+      <c r="A303" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>1</v>
-      </c>
-      <c r="B304">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>28</v>
-      </c>
-      <c r="B305" t="s">
-        <v>29</v>
+      <c r="A305" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="A306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G306" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B306" t="s">
-        <v>119</v>
+      <c r="H306" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>4</v>
-      </c>
-      <c r="B307" t="s">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" t="s">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s">
+        <v>108</v>
+      </c>
+      <c r="H307" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>6</v>
-      </c>
-      <c r="B308" t="s">
-        <v>13</v>
+        <v>139</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s">
+        <v>18</v>
+      </c>
+      <c r="G308" t="s">
+        <v>107</v>
+      </c>
+      <c r="H308" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>22</v>
-      </c>
-      <c r="B309" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B309">
+        <v>3.5098030277376187</v>
+      </c>
+      <c r="C309" t="s">
+        <v>31</v>
+      </c>
+      <c r="D309" t="s">
+        <v>15</v>
+      </c>
+      <c r="F309" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s">
+        <v>32</v>
+      </c>
+      <c r="H309" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>11</v>
-      </c>
-      <c r="B310" t="s">
-        <v>25</v>
+        <v>112</v>
+      </c>
+      <c r="B310">
+        <f>5870/44900</f>
+        <v>0.13073496659242761</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" t="s">
+        <v>16</v>
+      </c>
+      <c r="F310" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>28</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B311">
+        <v>1.6694063119110985E-6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>22</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="B312">
+        <v>12.456827894327896</v>
+      </c>
+      <c r="C312" t="s">
+        <v>25</v>
+      </c>
+      <c r="D312" t="s">
+        <v>6</v>
+      </c>
+      <c r="F312" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" t="s">
+        <v>104</v>
+      </c>
+      <c r="H312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
-      <c r="C315" t="s">
-        <v>25</v>
-      </c>
-      <c r="D315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>120</v>
-      </c>
-      <c r="H315" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>138</v>
-      </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-      <c r="C316" t="s">
-        <v>25</v>
-      </c>
-      <c r="D316" t="s">
-        <v>13</v>
-      </c>
-      <c r="F316" t="s">
-        <v>18</v>
-      </c>
-      <c r="G316" t="s">
-        <v>119</v>
-      </c>
-      <c r="H316" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B316" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>30</v>
-      </c>
-      <c r="B317">
-        <v>3.5098030277376187</v>
-      </c>
-      <c r="C317" t="s">
-        <v>31</v>
-      </c>
-      <c r="D317" t="s">
-        <v>15</v>
-      </c>
-      <c r="F317" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" t="s">
-        <v>32</v>
-      </c>
-      <c r="H317" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>142</v>
-      </c>
-      <c r="B318">
-        <v>0.13206758828730655</v>
-      </c>
-      <c r="D318" t="s">
-        <v>13</v>
-      </c>
-      <c r="E318" t="s">
-        <v>16</v>
-      </c>
-      <c r="F318" t="s">
-        <v>17</v>
-      </c>
-      <c r="H318" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>33</v>
-      </c>
-      <c r="B319">
-        <v>1.6694063119110985E-6</v>
-      </c>
-      <c r="D319" t="s">
-        <v>13</v>
-      </c>
-      <c r="E319" t="s">
-        <v>16</v>
-      </c>
-      <c r="F319" t="s">
-        <v>17</v>
-      </c>
-      <c r="H319" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B319" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>115</v>
-      </c>
-      <c r="B320">
-        <v>12.456827894327896</v>
-      </c>
-      <c r="C320" t="s">
-        <v>25</v>
-      </c>
-      <c r="D320" t="s">
-        <v>6</v>
-      </c>
-      <c r="F320" t="s">
-        <v>14</v>
-      </c>
-      <c r="G320" t="s">
-        <v>115</v>
-      </c>
-      <c r="H320" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>22</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" t="s">
+        <v>12</v>
+      </c>
+      <c r="F323" t="s">
+        <v>4</v>
+      </c>
+      <c r="G323" t="s">
+        <v>2</v>
+      </c>
+      <c r="H323" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>2</v>
-      </c>
-      <c r="B324" t="s">
-        <v>120</v>
+        <v>104</v>
+      </c>
+      <c r="B324">
+        <f>12.89</f>
+        <v>12.89</v>
+      </c>
+      <c r="C324" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" t="s">
+        <v>6</v>
+      </c>
+      <c r="F324" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s">
+        <v>104</v>
+      </c>
+      <c r="H324" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>4</v>
-      </c>
-      <c r="B325" t="s">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325" t="s">
+        <v>25</v>
+      </c>
+      <c r="D325" t="s">
+        <v>13</v>
+      </c>
+      <c r="F325" t="s">
+        <v>18</v>
+      </c>
+      <c r="G325" t="s">
+        <v>108</v>
+      </c>
+      <c r="H325" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>6</v>
-      </c>
-      <c r="B326" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B326" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C326" t="s">
+        <v>46</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>47</v>
+      </c>
+      <c r="H326" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>11</v>
-      </c>
-      <c r="B327" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="B327" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
+      </c>
+      <c r="C327" t="s">
+        <v>25</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+      <c r="F327" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s">
+        <v>20</v>
+      </c>
+      <c r="H327" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>28</v>
-      </c>
-      <c r="B328" s="7" t="s">
-        <v>116</v>
+        <v>34</v>
+      </c>
+      <c r="B328" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
+      </c>
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>35</v>
+      </c>
+      <c r="H328" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>22</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>9</v>
-      </c>
-      <c r="B331" t="s">
-        <v>10</v>
-      </c>
-      <c r="C331" t="s">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s">
-        <v>6</v>
-      </c>
-      <c r="E331" t="s">
-        <v>12</v>
-      </c>
-      <c r="F331" t="s">
-        <v>4</v>
-      </c>
-      <c r="G331" t="s">
-        <v>2</v>
-      </c>
-      <c r="H331" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>115</v>
-      </c>
-      <c r="B332">
-        <f>12.89</f>
-        <v>12.89</v>
-      </c>
-      <c r="C332" t="s">
-        <v>25</v>
-      </c>
-      <c r="D332" t="s">
-        <v>6</v>
-      </c>
-      <c r="F332" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" t="s">
-        <v>115</v>
-      </c>
-      <c r="H332" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>139</v>
-      </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
-      <c r="C333" t="s">
-        <v>25</v>
-      </c>
-      <c r="D333" t="s">
-        <v>13</v>
-      </c>
-      <c r="F333" t="s">
-        <v>18</v>
-      </c>
-      <c r="G333" t="s">
-        <v>120</v>
-      </c>
-      <c r="H333" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>47</v>
-      </c>
-      <c r="B334" s="5">
-        <f>((3090000*1000)/44900000)</f>
-        <v>68.819599109131403</v>
-      </c>
-      <c r="C334" t="s">
-        <v>48</v>
-      </c>
-      <c r="D334" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>49</v>
-      </c>
-      <c r="H334" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>34</v>
-      </c>
-      <c r="B335" s="5">
-        <f>(13600*1000)/44900000</f>
-        <v>0.30289532293986637</v>
-      </c>
-      <c r="C335" t="s">
-        <v>25</v>
-      </c>
-      <c r="D335" t="s">
-        <v>7</v>
-      </c>
-      <c r="F335" t="s">
-        <v>14</v>
-      </c>
-      <c r="G335" t="s">
-        <v>20</v>
-      </c>
-      <c r="H335" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>35</v>
-      </c>
-      <c r="B336" s="5">
-        <f>356/44900000</f>
-        <v>7.9287305122494425E-6</v>
-      </c>
-      <c r="C336" t="s">
-        <v>26</v>
-      </c>
-      <c r="D336" t="s">
-        <v>13</v>
-      </c>
-      <c r="F336" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" t="s">
         <v>36</v>
       </c>
-      <c r="H336" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>37</v>
-      </c>
-      <c r="B337" s="5">
+      <c r="B329" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C329" t="s">
         <v>26</v>
       </c>
-      <c r="D337" t="s">
-        <v>13</v>
-      </c>
-      <c r="F337" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" t="s">
+      <c r="D329" t="s">
+        <v>13</v>
+      </c>
+      <c r="F329" t="s">
+        <v>14</v>
+      </c>
+      <c r="G329" t="s">
+        <v>37</v>
+      </c>
+      <c r="H329" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>38</v>
       </c>
-      <c r="H337" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>39</v>
-      </c>
-      <c r="B338" s="5">
+      <c r="B330" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C330" t="s">
+        <v>39</v>
+      </c>
+      <c r="D330" t="s">
+        <v>13</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
         <v>40</v>
       </c>
-      <c r="D338" t="s">
-        <v>13</v>
-      </c>
-      <c r="F338" t="s">
-        <v>14</v>
-      </c>
-      <c r="G338" t="s">
-        <v>41</v>
-      </c>
-      <c r="H338" t="s">
+      <c r="H330" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A339" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B339" s="5">
+    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A331" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B331" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
-      <c r="C339" t="s">
-        <v>25</v>
-      </c>
-      <c r="D339" t="s">
-        <v>13</v>
-      </c>
-      <c r="F339" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H339" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A340" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B340" s="5">
-        <f>75900000/44900000</f>
-        <v>1.6904231625835189</v>
-      </c>
-      <c r="C340" t="s">
-        <v>25</v>
-      </c>
-      <c r="D340" t="s">
-        <v>13</v>
-      </c>
-      <c r="F340" t="s">
-        <v>14</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H340" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B341" s="34">
-        <f>B334</f>
-        <v>68.819599109131403</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G341" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
-      <c r="J341" s="3"/>
+      <c r="C331" t="s">
+        <v>25</v>
+      </c>
+      <c r="D331" t="s">
+        <v>13</v>
+      </c>
+      <c r="F331" t="s">
+        <v>14</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H331" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B332" s="5">
+        <v>-1.69</v>
+      </c>
+      <c r="D332" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" t="s">
+        <v>16</v>
+      </c>
+      <c r="F332" t="s">
+        <v>17</v>
+      </c>
+      <c r="G332" s="4"/>
+      <c r="H332" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B294" r:id="rId1"/>
-    <hyperlink ref="B278" r:id="rId2"/>
-    <hyperlink ref="B261" r:id="rId3"/>
-    <hyperlink ref="B245" r:id="rId4"/>
-    <hyperlink ref="B228" r:id="rId5"/>
-    <hyperlink ref="B212" r:id="rId6"/>
-    <hyperlink ref="B196" r:id="rId7"/>
+    <hyperlink ref="B287" r:id="rId1"/>
+    <hyperlink ref="B272" r:id="rId2"/>
+    <hyperlink ref="B256" r:id="rId3"/>
+    <hyperlink ref="B241" r:id="rId4"/>
+    <hyperlink ref="B225" r:id="rId5"/>
+    <hyperlink ref="B210" r:id="rId6"/>
+    <hyperlink ref="B195" r:id="rId7"/>
     <hyperlink ref="B180" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74982F60-D4DB-9948-903E-BEB3F1849499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="35400" yWindow="5400" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="140">
   <si>
     <t>Activity</t>
   </si>
@@ -149,9 +162,6 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
-  </si>
-  <si>
-    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -451,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -631,7 +641,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,92 +952,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1045,7 +1055,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1057,9 +1067,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1092,7 +1102,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1127,9 +1137,9 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1162,9 +1172,9 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1197,7 +1207,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1209,45 +1219,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1265,7 +1275,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1277,9 +1287,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1312,7 +1322,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1347,9 +1357,9 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1382,9 +1392,9 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1417,48 +1427,48 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="E27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="K27" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="24" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1477,7 +1487,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1490,9 +1500,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1528,7 +1538,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1566,9 +1576,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1604,9 +1614,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1642,48 +1652,48 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="E36" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="K36" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="24" t="s">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1702,7 +1712,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1715,9 +1725,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1753,7 +1763,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1791,9 +1801,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1829,9 +1839,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1873,38 +1883,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1920,15 +1930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1944,12 +1954,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1969,13 +1979,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1984,9 +1994,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2007,15 +2017,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2035,10 +2045,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2063,15 +2073,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2085,12 +2095,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2110,12 +2120,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2135,12 +2145,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2160,18 +2170,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2185,18 +2195,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2210,21 +2220,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2235,12 +2245,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2249,7 +2259,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2260,18 +2270,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2285,10 +2295,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2301,15 +2311,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2325,15 +2335,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2349,12 +2359,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2374,13 +2384,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
         <v>48</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>49</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2389,9 +2399,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2412,15 +2422,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2440,10 +2450,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2468,15 +2478,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2490,12 +2500,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2515,12 +2525,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2540,12 +2550,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2565,18 +2575,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2590,18 +2600,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2615,21 +2625,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2640,12 +2650,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2654,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2665,18 +2675,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2690,10 +2700,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2706,15 +2716,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2730,15 +2740,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2754,12 +2764,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2779,13 +2789,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" t="s">
         <v>48</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>49</v>
-      </c>
-      <c r="I52" t="s">
-        <v>50</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2794,9 +2804,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2817,15 +2827,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2845,10 +2855,10 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2873,15 +2883,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2895,12 +2905,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2920,12 +2930,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2945,12 +2955,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2970,18 +2980,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -2995,18 +3005,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3020,21 +3030,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3045,12 +3055,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3059,7 +3069,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3070,18 +3080,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3095,10 +3105,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3111,15 +3121,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3135,15 +3145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3159,12 +3169,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3184,13 +3194,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" t="s">
         <v>48</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>49</v>
-      </c>
-      <c r="I73" t="s">
-        <v>50</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3199,9 +3209,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3222,15 +3232,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3250,10 +3260,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3278,15 +3288,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3300,12 +3310,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3325,12 +3335,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3350,12 +3360,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3375,18 +3385,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3400,18 +3410,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3425,21 +3435,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3450,12 +3460,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3464,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3475,18 +3485,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3500,10 +3510,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3516,7 +3526,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3529,15 +3539,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3545,7 +3555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3553,15 +3563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3577,12 +3587,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3602,13 +3612,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" t="s">
         <v>48</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>49</v>
-      </c>
-      <c r="I95" t="s">
-        <v>50</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3617,9 +3627,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3640,15 +3650,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3668,10 +3678,10 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3696,15 +3706,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3718,12 +3728,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3743,12 +3753,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3768,12 +3778,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3793,18 +3803,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3818,18 +3828,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3843,21 +3853,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3868,12 +3878,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3882,7 +3892,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3893,18 +3903,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3918,10 +3928,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3934,15 +3944,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3958,15 +3968,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +3984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3982,12 +3992,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4007,13 +4017,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" t="s">
         <v>48</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>49</v>
-      </c>
-      <c r="I116" t="s">
-        <v>50</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4022,9 +4032,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4045,15 +4055,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4073,10 +4083,10 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4101,15 +4111,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4123,12 +4133,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4148,12 +4158,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4173,12 +4183,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4198,18 +4208,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4223,18 +4233,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4248,21 +4258,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4273,12 +4283,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4287,7 +4297,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4298,18 +4308,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4323,10 +4333,10 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4339,15 +4349,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4363,15 +4373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4379,7 +4389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4387,12 +4397,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4412,13 +4422,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137" t="s">
         <v>48</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>49</v>
-      </c>
-      <c r="I137" t="s">
-        <v>50</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4427,9 +4437,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4450,15 +4460,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4478,10 +4488,10 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -4506,15 +4516,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4528,12 +4538,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4553,12 +4563,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4578,12 +4588,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4603,18 +4613,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4628,18 +4638,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4653,21 +4663,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4678,12 +4688,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4692,7 +4702,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4703,18 +4713,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4728,10 +4738,10 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4744,15 +4754,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4768,15 +4778,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4792,12 +4802,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4817,13 +4827,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
+        <v>47</v>
+      </c>
+      <c r="H158" t="s">
         <v>48</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>49</v>
-      </c>
-      <c r="I158" t="s">
-        <v>50</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4832,9 +4842,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4855,15 +4865,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4883,10 +4893,10 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -4911,15 +4921,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4933,12 +4943,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4958,12 +4968,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4983,12 +4993,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5008,18 +5018,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5033,18 +5043,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5058,21 +5068,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5083,12 +5093,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5097,7 +5107,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5108,18 +5118,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5133,10 +5143,10 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5149,7 +5159,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5162,15 +5172,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5178,15 +5188,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5210,28 +5220,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5260,9 +5270,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5278,15 +5288,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5301,13 +5311,13 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H184" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -5331,9 +5341,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B186" s="5">
         <f>0.01*B184</f>
@@ -5352,24 +5362,24 @@
         <v>24</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5377,15 +5387,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5393,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5409,28 +5419,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -5459,9 +5469,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5477,15 +5487,15 @@
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B199" s="5">
         <v>1.93</v>
@@ -5500,13 +5510,13 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H199" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -5530,9 +5540,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B201" s="5">
         <f>0.01*B199</f>
@@ -5551,24 +5561,24 @@
         <v>24</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I201" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5576,15 +5586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5592,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5600,7 +5610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5608,28 +5618,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>22</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5658,9 +5668,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B213" s="3">
         <v>1</v>
@@ -5676,15 +5686,15 @@
         <v>18</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B214" s="5">
         <v>2.4510000000000001</v>
@@ -5699,13 +5709,13 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H214" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -5729,9 +5739,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B216" s="5">
         <f>0.01*B214</f>
@@ -5750,24 +5760,24 @@
         <v>24</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I216" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" s="5"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5775,15 +5785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5807,28 +5817,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5857,9 +5867,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -5875,15 +5885,15 @@
         <v>18</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B229" s="5">
         <v>2.57</v>
@@ -5898,13 +5908,13 @@
         <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H229" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -5928,9 +5938,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B231" s="5">
         <f>0.01*B229</f>
@@ -5949,27 +5959,27 @@
         <v>24</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I231" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5977,15 +5987,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +6011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6009,28 +6019,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -6059,9 +6069,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
@@ -6077,15 +6087,15 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B245" s="5">
         <v>2.371</v>
@@ -6100,13 +6110,13 @@
         <v>14</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H245" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -6130,9 +6140,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B247" s="5">
         <f>0.01*B245</f>
@@ -6151,24 +6161,24 @@
         <v>24</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I247" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -6176,15 +6186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6208,28 +6218,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -6258,9 +6268,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B259" s="3">
         <v>1</v>
@@ -6276,15 +6286,15 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B260" s="5">
         <v>4.5599999999999996</v>
@@ -6299,13 +6309,13 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H260" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -6329,9 +6339,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B262" s="5">
         <f>0.01*B260</f>
@@ -6350,27 +6360,27 @@
         <v>24</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I262" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -6378,15 +6388,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6394,7 +6404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -6410,28 +6420,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>22</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -6460,9 +6470,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B275" s="3">
         <v>1</v>
@@ -6478,15 +6488,15 @@
         <v>18</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B276" s="5">
         <v>2.5350000000000001</v>
@@ -6501,13 +6511,13 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H276" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -6531,9 +6541,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B278" s="5">
         <f>0.01*B276</f>
@@ -6552,24 +6562,24 @@
         <v>24</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I278" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6577,15 +6587,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6601,7 +6611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6609,28 +6619,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6659,9 +6669,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B290" s="3">
         <v>1</v>
@@ -6677,15 +6687,15 @@
         <v>18</v>
       </c>
       <c r="G290" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B291" s="5">
         <v>1.77</v>
@@ -6700,13 +6710,13 @@
         <v>14</v>
       </c>
       <c r="G291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H291" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -6730,9 +6740,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B291</f>
@@ -6751,24 +6761,24 @@
         <v>24</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I293" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6776,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6784,15 +6794,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6808,7 +6818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6816,7 +6826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6824,28 +6834,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>28</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6871,9 +6881,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6888,15 +6898,15 @@
         <v>14</v>
       </c>
       <c r="G307" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H307" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6911,13 +6921,13 @@
         <v>18</v>
       </c>
       <c r="G308" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H308" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6940,9 +6950,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6961,9 +6971,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -6981,9 +6991,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B312">
         <v>12.456827894327896</v>
@@ -6998,21 +7008,21 @@
         <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -7020,15 +7030,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7036,7 +7046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -7044,7 +7054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -7052,28 +7062,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>22</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -7099,9 +7109,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B324">
         <f>12.89</f>
@@ -7117,15 +7127,15 @@
         <v>14</v>
       </c>
       <c r="G324" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H324" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7140,37 +7150,37 @@
         <v>18</v>
       </c>
       <c r="G325" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H325" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B326" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C326" t="s">
+        <v>45</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
         <v>46</v>
-      </c>
-      <c r="D326" t="s">
-        <v>13</v>
-      </c>
-      <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>47</v>
       </c>
       <c r="H326" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7194,7 +7204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -7218,7 +7228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -7242,7 +7252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -7266,9 +7276,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B331" s="5">
         <f>6240000/44900000</f>
@@ -7284,15 +7294,15 @@
         <v>14</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H331" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B332" s="5">
         <v>-1.69</v>
@@ -7313,14 +7323,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B287" r:id="rId1"/>
-    <hyperlink ref="B272" r:id="rId2"/>
-    <hyperlink ref="B256" r:id="rId3"/>
-    <hyperlink ref="B241" r:id="rId4"/>
-    <hyperlink ref="B225" r:id="rId5"/>
-    <hyperlink ref="B210" r:id="rId6"/>
-    <hyperlink ref="B195" r:id="rId7"/>
-    <hyperlink ref="B180" r:id="rId8"/>
+    <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B256" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B241" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B225" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B210" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B195" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74982F60-D4DB-9948-903E-BEB3F1849499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35400" yWindow="5400" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
   <si>
     <t>Activity</t>
   </si>
@@ -162,6 +149,9 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
+  </si>
+  <si>
+    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -461,7 +451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -641,7 +631,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -952,92 +942,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1055,7 +1045,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1067,9 +1057,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1102,7 +1092,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1137,9 +1127,9 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1172,9 +1162,9 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1207,7 +1197,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1219,45 +1209,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1275,7 +1265,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1287,9 +1277,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1322,7 +1312,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1357,9 +1347,9 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1392,9 +1382,9 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1427,48 +1417,48 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1487,7 +1477,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1500,9 +1490,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1538,7 +1528,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1576,9 +1566,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1614,9 +1604,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1652,48 +1642,48 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1712,7 +1702,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1725,9 +1715,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1763,7 +1753,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1801,9 +1791,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1839,9 +1829,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1883,38 +1873,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1922,7 +1912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1930,15 +1920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1954,12 +1944,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1979,13 +1969,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1994,9 +1984,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2017,15 +2007,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2045,10 +2035,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2073,15 +2063,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2095,12 +2085,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2120,12 +2110,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2145,12 +2135,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2170,18 +2160,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2195,18 +2185,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2220,21 +2210,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2245,12 +2235,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2259,7 +2249,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2270,18 +2260,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2295,10 +2285,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2311,15 +2301,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2335,15 +2325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2359,12 +2349,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2384,13 +2374,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2399,9 +2389,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2422,15 +2412,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2450,10 +2440,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2478,15 +2468,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2500,12 +2490,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2525,12 +2515,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2550,12 +2540,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2575,18 +2565,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2600,18 +2590,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2625,21 +2615,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2650,12 +2640,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2664,7 +2654,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2675,18 +2665,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2700,10 +2690,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2716,15 +2706,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2732,7 +2722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2740,15 +2730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2764,12 +2754,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2789,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2804,9 +2794,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2827,15 +2817,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2855,10 +2845,10 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2883,15 +2873,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2905,12 +2895,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2930,12 +2920,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2955,12 +2945,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2980,18 +2970,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -3005,18 +2995,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3030,21 +3020,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3055,12 +3045,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3069,7 +3059,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3080,18 +3070,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3105,10 +3095,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3121,15 +3111,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3137,7 +3127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3145,15 +3135,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3169,12 +3159,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3194,13 +3184,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3209,9 +3199,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3232,15 +3222,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3260,10 +3250,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3288,15 +3278,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3310,12 +3300,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3335,12 +3325,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3360,12 +3350,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3385,18 +3375,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3410,18 +3400,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3435,21 +3425,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3460,12 +3450,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3474,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3485,18 +3475,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3510,10 +3500,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3526,7 +3516,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3539,15 +3529,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3555,7 +3545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3563,15 +3553,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3579,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3587,12 +3577,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3612,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3627,9 +3617,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3650,15 +3640,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3678,10 +3668,10 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3706,15 +3696,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3728,12 +3718,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3753,12 +3743,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3778,12 +3768,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3803,18 +3793,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3828,18 +3818,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3853,21 +3843,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3878,12 +3868,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3892,7 +3882,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3903,18 +3893,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3928,10 +3918,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3944,15 +3934,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3960,7 +3950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3968,15 +3958,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3984,7 +3974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3992,12 +3982,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4017,13 +4007,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4032,9 +4022,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4055,15 +4045,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4083,10 +4073,10 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4111,15 +4101,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4133,12 +4123,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4158,12 +4148,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4183,12 +4173,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4208,18 +4198,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4233,18 +4223,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4258,21 +4248,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4283,12 +4273,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4297,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4308,18 +4298,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4333,10 +4323,10 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4349,15 +4339,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4365,7 +4355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4373,15 +4363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4389,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4397,12 +4387,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4422,13 +4412,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4437,9 +4427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4460,15 +4450,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4488,10 +4478,10 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -4516,15 +4506,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4538,12 +4528,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4563,12 +4553,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4588,12 +4578,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4613,18 +4603,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4638,18 +4628,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4663,21 +4653,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4688,12 +4678,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4702,7 +4692,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4713,18 +4703,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4738,10 +4728,10 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4754,15 +4744,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4770,7 +4760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4778,15 +4768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4802,12 +4792,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4827,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4842,9 +4832,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4865,15 +4855,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4893,10 +4883,10 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -4921,15 +4911,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4943,12 +4933,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4968,12 +4958,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4993,12 +4983,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5018,18 +5008,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5043,18 +5033,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5068,21 +5058,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5093,12 +5083,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5107,7 +5097,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5118,18 +5108,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5143,10 +5133,10 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5159,7 +5149,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5172,15 +5162,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5188,15 +5178,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5204,7 +5194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5212,7 +5202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5220,28 +5210,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5270,9 +5260,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5288,15 +5278,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5311,13 +5301,13 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H184" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -5341,9 +5331,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B186" s="5">
         <f>0.01*B184</f>
@@ -5362,24 +5352,24 @@
         <v>24</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I186" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5387,15 +5377,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5411,7 +5401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5419,28 +5409,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -5469,9 +5459,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5487,15 +5477,15 @@
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B199" s="5">
         <v>1.93</v>
@@ -5510,13 +5500,13 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H199" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -5540,9 +5530,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B201" s="5">
         <f>0.01*B199</f>
@@ -5561,24 +5551,24 @@
         <v>24</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I201" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5586,15 +5576,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5602,7 +5592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5618,28 +5608,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>22</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5668,9 +5658,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B213" s="3">
         <v>1</v>
@@ -5686,15 +5676,15 @@
         <v>18</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B214" s="5">
         <v>2.4510000000000001</v>
@@ -5709,13 +5699,13 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H214" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -5739,9 +5729,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B216" s="5">
         <f>0.01*B214</f>
@@ -5760,24 +5750,24 @@
         <v>24</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I216" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5785,15 +5775,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5801,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5809,7 +5799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5817,28 +5807,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5867,9 +5857,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -5885,15 +5875,15 @@
         <v>18</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B229" s="5">
         <v>2.57</v>
@@ -5908,13 +5898,13 @@
         <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H229" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -5938,9 +5928,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B231" s="5">
         <f>0.01*B229</f>
@@ -5959,27 +5949,27 @@
         <v>24</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I231" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5987,15 +5977,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>2</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -6003,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6011,7 +6001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6019,28 +6009,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>22</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -6069,9 +6059,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
@@ -6087,15 +6077,15 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B245" s="5">
         <v>2.371</v>
@@ -6110,13 +6100,13 @@
         <v>14</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H245" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -6140,9 +6130,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B247" s="5">
         <f>0.01*B245</f>
@@ -6161,24 +6151,24 @@
         <v>24</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I247" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -6186,15 +6176,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6202,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6210,7 +6200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6218,28 +6208,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>22</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -6268,9 +6258,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B259" s="3">
         <v>1</v>
@@ -6286,15 +6276,15 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B260" s="5">
         <v>4.5599999999999996</v>
@@ -6309,13 +6299,13 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H260" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -6339,9 +6329,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B262" s="5">
         <f>0.01*B260</f>
@@ -6360,27 +6350,27 @@
         <v>24</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I262" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -6388,15 +6378,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>2</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6404,7 +6394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6412,7 +6402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -6420,28 +6410,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>22</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -6470,9 +6460,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B275" s="3">
         <v>1</v>
@@ -6488,15 +6478,15 @@
         <v>18</v>
       </c>
       <c r="G275" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B276" s="5">
         <v>2.5350000000000001</v>
@@ -6511,13 +6501,13 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H276" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -6541,9 +6531,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B278" s="5">
         <f>0.01*B276</f>
@@ -6562,24 +6552,24 @@
         <v>24</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I278" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6587,15 +6577,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6603,7 +6593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6611,7 +6601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6619,28 +6609,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>22</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6669,9 +6659,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B290" s="3">
         <v>1</v>
@@ -6687,15 +6677,15 @@
         <v>18</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B291" s="5">
         <v>1.77</v>
@@ -6710,13 +6700,13 @@
         <v>14</v>
       </c>
       <c r="G291" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H291" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -6740,9 +6730,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B291</f>
@@ -6761,24 +6751,24 @@
         <v>24</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I293" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6786,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6794,15 +6784,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6810,7 +6800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6818,7 +6808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6826,7 +6816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6834,28 +6824,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>28</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>22</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6881,9 +6871,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6898,15 +6888,15 @@
         <v>14</v>
       </c>
       <c r="G307" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H307" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6921,13 +6911,13 @@
         <v>18</v>
       </c>
       <c r="G308" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H308" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6950,9 +6940,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6971,9 +6961,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -6991,9 +6981,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B312">
         <v>12.456827894327896</v>
@@ -7008,21 +6998,21 @@
         <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -7030,15 +7020,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7046,7 +7036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -7054,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -7062,28 +7052,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>28</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>22</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -7109,9 +7099,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B324">
         <f>12.89</f>
@@ -7127,15 +7117,15 @@
         <v>14</v>
       </c>
       <c r="G324" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H324" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7150,22 +7140,22 @@
         <v>18</v>
       </c>
       <c r="G325" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H325" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B326" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D326" t="s">
         <v>13</v>
@@ -7174,13 +7164,13 @@
         <v>14</v>
       </c>
       <c r="G326" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H326" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7204,7 +7194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -7228,7 +7218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -7252,7 +7242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -7276,9 +7266,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B331" s="5">
         <f>6240000/44900000</f>
@@ -7294,15 +7284,15 @@
         <v>14</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H331" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B332" s="5">
         <v>-1.69</v>
@@ -7323,14 +7313,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B256" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B241" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B225" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B210" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B195" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B287" r:id="rId1"/>
+    <hyperlink ref="B272" r:id="rId2"/>
+    <hyperlink ref="B256" r:id="rId3"/>
+    <hyperlink ref="B241" r:id="rId4"/>
+    <hyperlink ref="B225" r:id="rId5"/>
+    <hyperlink ref="B210" r:id="rId6"/>
+    <hyperlink ref="B195" r:id="rId7"/>
+    <hyperlink ref="B180" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7D919-A9D7-B546-B576-C05492D2D30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="140">
   <si>
     <t>Activity</t>
   </si>
@@ -149,9 +162,6 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
-  </si>
-  <si>
-    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -451,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -631,7 +641,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,92 +952,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1045,7 +1055,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1057,9 +1067,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1092,7 +1102,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1127,9 +1137,9 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1162,9 +1172,9 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1197,7 +1207,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1209,45 +1219,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1265,7 +1275,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1277,9 +1287,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1312,7 +1322,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1347,9 +1357,9 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1382,9 +1392,9 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1417,48 +1427,48 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="E27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="K27" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="24" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1477,7 +1487,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1490,9 +1500,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1528,7 +1538,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1566,9 +1576,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1604,9 +1614,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1642,48 +1652,48 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="E36" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="K36" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="24" t="s">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1702,7 +1712,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1715,9 +1725,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1753,7 +1763,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1791,9 +1801,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1829,9 +1839,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1873,38 +1883,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1920,15 +1930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1944,12 +1954,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1969,13 +1979,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1984,9 +1994,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2007,15 +2017,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2035,10 +2045,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2063,15 +2073,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2085,12 +2095,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2110,12 +2120,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2135,12 +2145,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2160,18 +2170,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2185,18 +2195,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2210,21 +2220,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2235,12 +2245,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2249,7 +2259,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2260,18 +2270,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2285,10 +2295,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2301,15 +2311,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2325,15 +2335,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2349,12 +2359,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2374,13 +2384,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
         <v>48</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>49</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2389,9 +2399,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2412,15 +2422,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2440,10 +2450,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2468,15 +2478,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2490,12 +2500,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2515,12 +2525,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2540,12 +2550,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2565,18 +2575,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2590,18 +2600,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2615,21 +2625,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2640,12 +2650,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2654,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2665,18 +2675,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2690,10 +2700,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2706,15 +2716,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2730,15 +2740,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2754,12 +2764,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2779,13 +2789,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" t="s">
         <v>48</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>49</v>
-      </c>
-      <c r="I52" t="s">
-        <v>50</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2794,9 +2804,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2817,15 +2827,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2845,10 +2855,10 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2873,15 +2883,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2895,12 +2905,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2920,12 +2930,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2945,12 +2955,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2970,18 +2980,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -2995,18 +3005,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3020,21 +3030,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3045,12 +3055,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3059,7 +3069,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3070,18 +3080,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3095,10 +3105,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3111,15 +3121,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3135,15 +3145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3159,12 +3169,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3184,13 +3194,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" t="s">
         <v>48</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>49</v>
-      </c>
-      <c r="I73" t="s">
-        <v>50</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3199,9 +3209,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3222,15 +3232,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3250,10 +3260,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3278,15 +3288,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3300,12 +3310,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3325,12 +3335,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3350,12 +3360,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3375,18 +3385,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3400,18 +3410,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3425,21 +3435,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3450,12 +3460,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3464,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3475,18 +3485,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3500,10 +3510,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3516,7 +3526,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3529,15 +3539,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3545,7 +3555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3553,15 +3563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3577,12 +3587,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3602,13 +3612,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" t="s">
         <v>48</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>49</v>
-      </c>
-      <c r="I95" t="s">
-        <v>50</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3617,9 +3627,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3640,15 +3650,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3668,10 +3678,10 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3696,15 +3706,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3718,12 +3728,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3743,12 +3753,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3768,12 +3778,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3793,18 +3803,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3818,18 +3828,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3843,21 +3853,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3868,12 +3878,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3882,7 +3892,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3893,18 +3903,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3918,10 +3928,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3934,15 +3944,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3958,15 +3968,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +3984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3982,12 +3992,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4007,13 +4017,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" t="s">
         <v>48</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>49</v>
-      </c>
-      <c r="I116" t="s">
-        <v>50</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4022,9 +4032,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4045,15 +4055,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4073,10 +4083,10 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4101,15 +4111,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4123,12 +4133,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4148,12 +4158,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4173,12 +4183,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4198,18 +4208,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4223,18 +4233,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4248,21 +4258,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4273,12 +4283,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4287,7 +4297,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4298,18 +4308,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4323,10 +4333,10 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4339,15 +4349,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4363,15 +4373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4379,7 +4389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4387,12 +4397,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4412,13 +4422,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137" t="s">
         <v>48</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>49</v>
-      </c>
-      <c r="I137" t="s">
-        <v>50</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4427,9 +4437,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4450,15 +4460,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4478,10 +4488,10 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -4506,15 +4516,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4528,12 +4538,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4553,12 +4563,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4578,12 +4588,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4603,18 +4613,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4628,18 +4638,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4653,21 +4663,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4678,12 +4688,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4692,7 +4702,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4703,18 +4713,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4728,10 +4738,10 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4744,15 +4754,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4768,15 +4778,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4792,12 +4802,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4817,13 +4827,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
+        <v>47</v>
+      </c>
+      <c r="H158" t="s">
         <v>48</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>49</v>
-      </c>
-      <c r="I158" t="s">
-        <v>50</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4832,9 +4842,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4855,15 +4865,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4883,10 +4893,10 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -4911,15 +4921,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4933,12 +4943,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4958,12 +4968,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4983,12 +4993,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5008,18 +5018,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5033,18 +5043,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5058,21 +5068,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5083,12 +5093,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5097,7 +5107,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5108,18 +5118,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5133,10 +5143,10 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5149,7 +5159,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5162,15 +5172,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5178,15 +5188,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5210,28 +5220,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5260,9 +5270,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5278,15 +5288,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5301,13 +5311,13 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H184" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -5331,9 +5341,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B186" s="5">
         <f>0.01*B184</f>
@@ -5352,24 +5362,24 @@
         <v>24</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5377,15 +5387,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5393,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5409,28 +5419,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -5459,9 +5469,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5477,15 +5487,15 @@
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B199" s="5">
         <v>1.93</v>
@@ -5500,13 +5510,13 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H199" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -5530,9 +5540,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B201" s="5">
         <f>0.01*B199</f>
@@ -5551,24 +5561,24 @@
         <v>24</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I201" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5576,15 +5586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5592,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5600,7 +5610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5608,28 +5618,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>22</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5658,9 +5668,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B213" s="3">
         <v>1</v>
@@ -5676,15 +5686,15 @@
         <v>18</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B214" s="5">
         <v>2.4510000000000001</v>
@@ -5699,13 +5709,13 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H214" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -5729,9 +5739,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B216" s="5">
         <f>0.01*B214</f>
@@ -5750,24 +5760,24 @@
         <v>24</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I216" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" s="5"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5775,15 +5785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5807,28 +5817,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5857,9 +5867,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -5875,15 +5885,15 @@
         <v>18</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B229" s="5">
         <v>2.57</v>
@@ -5898,13 +5908,13 @@
         <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H229" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -5928,9 +5938,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B231" s="5">
         <f>0.01*B229</f>
@@ -5949,27 +5959,27 @@
         <v>24</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I231" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5977,15 +5987,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +6011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6009,28 +6019,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -6059,9 +6069,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
@@ -6077,15 +6087,15 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B245" s="5">
         <v>2.371</v>
@@ -6100,13 +6110,13 @@
         <v>14</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H245" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -6130,9 +6140,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B247" s="5">
         <f>0.01*B245</f>
@@ -6151,24 +6161,24 @@
         <v>24</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I247" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -6176,15 +6186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6208,28 +6218,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -6258,9 +6268,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B259" s="3">
         <v>1</v>
@@ -6276,15 +6286,15 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B260" s="5">
         <v>4.5599999999999996</v>
@@ -6299,13 +6309,13 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H260" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -6329,9 +6339,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B262" s="5">
         <f>0.01*B260</f>
@@ -6350,27 +6360,27 @@
         <v>24</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I262" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -6378,15 +6388,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6394,7 +6404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -6410,28 +6420,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>22</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -6460,9 +6470,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B275" s="3">
         <v>1</v>
@@ -6478,15 +6488,15 @@
         <v>18</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B276" s="5">
         <v>2.5350000000000001</v>
@@ -6501,13 +6511,13 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H276" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -6531,9 +6541,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B278" s="5">
         <f>0.01*B276</f>
@@ -6552,24 +6562,24 @@
         <v>24</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I278" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6577,15 +6587,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6601,7 +6611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6609,28 +6619,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6659,9 +6669,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B290" s="3">
         <v>1</v>
@@ -6677,15 +6687,15 @@
         <v>18</v>
       </c>
       <c r="G290" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B291" s="5">
         <v>1.77</v>
@@ -6700,13 +6710,13 @@
         <v>14</v>
       </c>
       <c r="G291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H291" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -6730,9 +6740,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B291</f>
@@ -6751,24 +6761,24 @@
         <v>24</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I293" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6776,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6784,15 +6794,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6808,7 +6818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6816,7 +6826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6824,28 +6834,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>28</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6871,9 +6881,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6888,15 +6898,15 @@
         <v>14</v>
       </c>
       <c r="G307" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H307" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6911,13 +6921,13 @@
         <v>18</v>
       </c>
       <c r="G308" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H308" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6940,9 +6950,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6961,9 +6971,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -6981,9 +6991,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B312">
         <v>12.456827894327896</v>
@@ -6998,21 +7008,21 @@
         <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -7020,15 +7030,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7036,7 +7046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -7044,7 +7054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -7052,28 +7062,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>22</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -7099,9 +7109,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B324">
         <f>12.89</f>
@@ -7117,15 +7127,15 @@
         <v>14</v>
       </c>
       <c r="G324" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H324" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7140,37 +7150,37 @@
         <v>18</v>
       </c>
       <c r="G325" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H325" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B326" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C326" t="s">
+        <v>45</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
         <v>46</v>
-      </c>
-      <c r="D326" t="s">
-        <v>13</v>
-      </c>
-      <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>47</v>
       </c>
       <c r="H326" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7194,7 +7204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -7218,7 +7228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -7242,7 +7252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -7266,9 +7276,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B331" s="5">
         <f>6240000/44900000</f>
@@ -7284,15 +7294,15 @@
         <v>14</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H331" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B332" s="5">
         <v>-1.69</v>
@@ -7313,14 +7323,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B287" r:id="rId1"/>
-    <hyperlink ref="B272" r:id="rId2"/>
-    <hyperlink ref="B256" r:id="rId3"/>
-    <hyperlink ref="B241" r:id="rId4"/>
-    <hyperlink ref="B225" r:id="rId5"/>
-    <hyperlink ref="B210" r:id="rId6"/>
-    <hyperlink ref="B195" r:id="rId7"/>
-    <hyperlink ref="B180" r:id="rId8"/>
+    <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B256" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B241" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B225" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B210" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B195" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7D919-A9D7-B546-B576-C05492D2D30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
   <si>
     <t>Activity</t>
   </si>
@@ -162,6 +149,9 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
+  </si>
+  <si>
+    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -461,7 +451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -641,7 +631,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -952,92 +942,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1055,7 +1045,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1067,9 +1057,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1102,7 +1092,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1137,9 +1127,9 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1172,9 +1162,9 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1207,7 +1197,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1219,45 +1209,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1275,7 +1265,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1287,9 +1277,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1322,7 +1312,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1357,9 +1347,9 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1392,9 +1382,9 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1427,48 +1417,48 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1487,7 +1477,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1500,9 +1490,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1538,7 +1528,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1576,9 +1566,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1614,9 +1604,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1652,48 +1642,48 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1712,7 +1702,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1725,9 +1715,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1763,7 +1753,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1801,9 +1791,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1839,9 +1829,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1883,38 +1873,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1922,7 +1912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1930,15 +1920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1954,12 +1944,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1979,13 +1969,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1994,9 +1984,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2017,15 +2007,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2045,10 +2035,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2073,15 +2063,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2095,12 +2085,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2120,12 +2110,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2145,12 +2135,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2170,18 +2160,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2195,18 +2185,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2220,21 +2210,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2245,12 +2235,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2259,7 +2249,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2270,18 +2260,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2295,10 +2285,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2311,15 +2301,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2335,15 +2325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2359,12 +2349,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2384,13 +2374,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2399,9 +2389,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2422,15 +2412,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2450,10 +2440,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2478,15 +2468,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2500,12 +2490,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2525,12 +2515,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2550,12 +2540,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2575,18 +2565,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2600,18 +2590,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2625,21 +2615,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2650,12 +2640,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2664,7 +2654,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2675,18 +2665,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2700,10 +2690,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2716,15 +2706,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2732,7 +2722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2740,15 +2730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2764,12 +2754,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2789,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2804,9 +2794,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2827,15 +2817,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2855,10 +2845,10 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2883,15 +2873,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2905,12 +2895,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2930,12 +2920,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2955,12 +2945,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2980,18 +2970,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -3005,18 +2995,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3030,21 +3020,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3055,12 +3045,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3069,7 +3059,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3080,18 +3070,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3105,10 +3095,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3121,15 +3111,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3137,7 +3127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3145,15 +3135,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3169,12 +3159,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3194,13 +3184,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3209,9 +3199,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3232,15 +3222,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3260,10 +3250,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3288,15 +3278,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3310,12 +3300,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3335,12 +3325,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3360,12 +3350,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3385,18 +3375,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3410,18 +3400,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3435,21 +3425,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3460,12 +3450,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3474,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3485,18 +3475,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3510,10 +3500,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3526,7 +3516,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3539,15 +3529,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3555,7 +3545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3563,15 +3553,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3579,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3587,12 +3577,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3612,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3627,9 +3617,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3650,15 +3640,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3678,10 +3668,10 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3706,15 +3696,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3728,12 +3718,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3753,12 +3743,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3778,12 +3768,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3803,18 +3793,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3828,18 +3818,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3853,21 +3843,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3878,12 +3868,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3892,7 +3882,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3903,18 +3893,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3928,10 +3918,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3944,15 +3934,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3960,7 +3950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3968,15 +3958,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3984,7 +3974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3992,12 +3982,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4017,13 +4007,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4032,9 +4022,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4055,15 +4045,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4083,10 +4073,10 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4111,15 +4101,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4133,12 +4123,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4158,12 +4148,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4183,12 +4173,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4208,18 +4198,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4233,18 +4223,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4258,21 +4248,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4283,12 +4273,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4297,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4308,18 +4298,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4333,10 +4323,10 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4349,15 +4339,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4365,7 +4355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4373,15 +4363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4389,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4397,12 +4387,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4422,13 +4412,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4437,9 +4427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4460,15 +4450,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4488,10 +4478,10 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -4516,15 +4506,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4538,12 +4528,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4563,12 +4553,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4588,12 +4578,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4613,18 +4603,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4638,18 +4628,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4663,21 +4653,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4688,12 +4678,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4702,7 +4692,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4713,18 +4703,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4738,10 +4728,10 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4754,15 +4744,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4770,7 +4760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4778,15 +4768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4802,12 +4792,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4827,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4842,9 +4832,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4865,15 +4855,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4893,10 +4883,10 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -4921,15 +4911,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4943,12 +4933,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4968,12 +4958,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4993,12 +4983,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5018,18 +5008,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5043,18 +5033,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5068,21 +5058,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5093,12 +5083,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5107,7 +5097,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5118,18 +5108,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5143,10 +5133,10 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5159,7 +5149,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5172,15 +5162,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5188,15 +5178,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5204,7 +5194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5212,7 +5202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5220,28 +5210,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5270,9 +5260,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5288,15 +5278,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5311,13 +5301,13 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H184" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -5341,9 +5331,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B186" s="5">
         <f>0.01*B184</f>
@@ -5362,24 +5352,24 @@
         <v>24</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I186" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5387,15 +5377,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5411,7 +5401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5419,28 +5409,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -5469,9 +5459,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5487,15 +5477,15 @@
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B199" s="5">
         <v>1.93</v>
@@ -5510,13 +5500,13 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H199" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -5540,9 +5530,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B201" s="5">
         <f>0.01*B199</f>
@@ -5561,24 +5551,24 @@
         <v>24</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I201" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5586,15 +5576,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5602,7 +5592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5618,28 +5608,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>22</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5668,9 +5658,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B213" s="3">
         <v>1</v>
@@ -5686,15 +5676,15 @@
         <v>18</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B214" s="5">
         <v>2.4510000000000001</v>
@@ -5709,13 +5699,13 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H214" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -5739,9 +5729,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B216" s="5">
         <f>0.01*B214</f>
@@ -5760,24 +5750,24 @@
         <v>24</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I216" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5785,15 +5775,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5801,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5809,7 +5799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5817,28 +5807,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5867,9 +5857,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -5885,15 +5875,15 @@
         <v>18</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B229" s="5">
         <v>2.57</v>
@@ -5908,13 +5898,13 @@
         <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H229" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -5938,9 +5928,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B231" s="5">
         <f>0.01*B229</f>
@@ -5959,27 +5949,27 @@
         <v>24</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I231" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5987,15 +5977,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>2</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -6003,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6011,7 +6001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6019,28 +6009,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>22</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -6069,9 +6059,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
@@ -6087,15 +6077,15 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B245" s="5">
         <v>2.371</v>
@@ -6110,13 +6100,13 @@
         <v>14</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H245" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -6140,9 +6130,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B247" s="5">
         <f>0.01*B245</f>
@@ -6161,24 +6151,24 @@
         <v>24</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I247" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -6186,15 +6176,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6202,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6210,7 +6200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6218,28 +6208,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>22</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -6268,9 +6258,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B259" s="3">
         <v>1</v>
@@ -6286,15 +6276,15 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B260" s="5">
         <v>4.5599999999999996</v>
@@ -6309,13 +6299,13 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H260" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -6339,9 +6329,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B262" s="5">
         <f>0.01*B260</f>
@@ -6360,27 +6350,27 @@
         <v>24</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I262" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -6388,15 +6378,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>2</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6404,7 +6394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6412,7 +6402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -6420,28 +6410,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>22</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -6470,9 +6460,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B275" s="3">
         <v>1</v>
@@ -6488,15 +6478,15 @@
         <v>18</v>
       </c>
       <c r="G275" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B276" s="5">
         <v>2.5350000000000001</v>
@@ -6511,13 +6501,13 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H276" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -6541,9 +6531,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B278" s="5">
         <f>0.01*B276</f>
@@ -6562,24 +6552,24 @@
         <v>24</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I278" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6587,15 +6577,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6603,7 +6593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6611,7 +6601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6619,28 +6609,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>22</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6669,9 +6659,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B290" s="3">
         <v>1</v>
@@ -6687,15 +6677,15 @@
         <v>18</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B291" s="5">
         <v>1.77</v>
@@ -6710,13 +6700,13 @@
         <v>14</v>
       </c>
       <c r="G291" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H291" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -6740,9 +6730,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B291</f>
@@ -6761,24 +6751,24 @@
         <v>24</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I293" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6786,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6794,15 +6784,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6810,7 +6800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6818,7 +6808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6826,7 +6816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6834,28 +6824,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>28</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>22</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6881,9 +6871,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6898,15 +6888,15 @@
         <v>14</v>
       </c>
       <c r="G307" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H307" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6921,13 +6911,13 @@
         <v>18</v>
       </c>
       <c r="G308" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H308" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6950,9 +6940,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6971,9 +6961,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -6991,9 +6981,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B312">
         <v>12.456827894327896</v>
@@ -7008,21 +6998,21 @@
         <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -7030,15 +7020,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7046,7 +7036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -7054,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -7062,28 +7052,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>28</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>22</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -7109,9 +7099,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B324">
         <f>12.89</f>
@@ -7127,15 +7117,15 @@
         <v>14</v>
       </c>
       <c r="G324" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H324" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7150,22 +7140,22 @@
         <v>18</v>
       </c>
       <c r="G325" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H325" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B326" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D326" t="s">
         <v>13</v>
@@ -7174,13 +7164,13 @@
         <v>14</v>
       </c>
       <c r="G326" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H326" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7204,7 +7194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -7228,7 +7218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -7252,7 +7242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -7276,9 +7266,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B331" s="5">
         <f>6240000/44900000</f>
@@ -7294,15 +7284,15 @@
         <v>14</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H331" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B332" s="5">
         <v>-1.69</v>
@@ -7323,14 +7313,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B256" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B241" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B225" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B210" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B195" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B287" r:id="rId1"/>
+    <hyperlink ref="B272" r:id="rId2"/>
+    <hyperlink ref="B256" r:id="rId3"/>
+    <hyperlink ref="B241" r:id="rId4"/>
+    <hyperlink ref="B225" r:id="rId5"/>
+    <hyperlink ref="B210" r:id="rId6"/>
+    <hyperlink ref="B195" r:id="rId7"/>
+    <hyperlink ref="B180" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8675D0EC-33F1-A94B-B95D-52340CAB7FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -451,7 +464,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -631,7 +644,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,33 +955,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -976,7 +989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -984,12 +997,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -1025,7 +1038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>94</v>
       </c>
@@ -1045,7 +1058,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1057,7 +1070,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>95</v>
       </c>
@@ -1092,7 +1105,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1140,7 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>96</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>97</v>
       </c>
@@ -1197,7 +1210,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1209,7 +1222,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1217,7 +1230,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1245,7 +1258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>94</v>
       </c>
@@ -1265,7 +1278,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1277,7 +1290,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
@@ -1312,7 +1325,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1360,7 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>96</v>
       </c>
@@ -1382,7 +1395,7 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>97</v>
       </c>
@@ -1417,7 +1430,7 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -1456,7 +1469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>94</v>
       </c>
@@ -1477,7 +1490,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1490,7 +1503,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>95</v>
       </c>
@@ -1528,7 +1541,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>96</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>97</v>
       </c>
@@ -1642,7 +1655,7 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -1650,7 +1663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -1681,7 +1694,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>94</v>
       </c>
@@ -1702,7 +1715,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1715,7 +1728,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>95</v>
       </c>
@@ -1753,7 +1766,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1804,7 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>96</v>
       </c>
@@ -1829,7 +1842,7 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>97</v>
       </c>
@@ -1873,22 +1886,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1896,7 +1910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1918,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1912,7 +1926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1920,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1928,7 +1942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1944,12 +1958,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>116</v>
       </c>
@@ -2038,7 +2052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2063,7 +2077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2188,7 +2202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -2213,7 +2227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -2238,7 +2252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
@@ -2263,7 +2277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
@@ -2288,7 +2302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2301,7 +2315,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2323,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2349,12 +2363,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>117</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>118</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -2493,7 +2507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
@@ -2518,7 +2532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -2543,7 +2557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>60</v>
       </c>
@@ -2593,7 +2607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -2618,7 +2632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
@@ -2643,7 +2657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
@@ -2668,7 +2682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>70</v>
       </c>
@@ -2693,7 +2707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2706,7 +2720,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +2728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2730,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +2752,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2754,12 +2768,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2794,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>119</v>
       </c>
@@ -2823,7 +2837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
@@ -2848,7 +2862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2873,7 +2887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -2898,7 +2912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -2923,7 +2937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -2948,7 +2962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -2973,7 +2987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
@@ -2998,7 +3012,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
@@ -3048,7 +3062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -3073,7 +3087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
@@ -3098,7 +3112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3111,7 +3125,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3133,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3127,7 +3141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3143,7 +3157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3159,12 +3173,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>121</v>
       </c>
@@ -3228,7 +3242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>122</v>
       </c>
@@ -3253,7 +3267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>52</v>
       </c>
@@ -3303,7 +3317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>54</v>
       </c>
@@ -3328,7 +3342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -3353,7 +3367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>58</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>60</v>
       </c>
@@ -3403,7 +3417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>45</v>
       </c>
@@ -3428,7 +3442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>62</v>
       </c>
@@ -3453,7 +3467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>65</v>
       </c>
@@ -3478,7 +3492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>70</v>
       </c>
@@ -3503,7 +3517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3516,7 +3530,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3529,7 +3543,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3545,7 +3559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -3561,7 +3575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3569,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3577,12 +3591,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3617,7 +3631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>123</v>
       </c>
@@ -3646,7 +3660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>124</v>
       </c>
@@ -3671,7 +3685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3696,7 +3710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>52</v>
       </c>
@@ -3721,7 +3735,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>54</v>
       </c>
@@ -3746,7 +3760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>56</v>
       </c>
@@ -3771,7 +3785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>58</v>
       </c>
@@ -3796,7 +3810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>60</v>
       </c>
@@ -3821,7 +3835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>45</v>
       </c>
@@ -3846,7 +3860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>62</v>
       </c>
@@ -3871,7 +3885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>65</v>
       </c>
@@ -3896,7 +3910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>70</v>
       </c>
@@ -3921,7 +3935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3934,7 +3948,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3956,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +3964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -3966,7 +3980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3982,12 +3996,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4022,7 +4036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>125</v>
       </c>
@@ -4051,7 +4065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>126</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4101,7 +4115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>52</v>
       </c>
@@ -4126,7 +4140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>54</v>
       </c>
@@ -4151,7 +4165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>56</v>
       </c>
@@ -4176,7 +4190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>58</v>
       </c>
@@ -4201,7 +4215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>60</v>
       </c>
@@ -4226,7 +4240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>45</v>
       </c>
@@ -4251,7 +4265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>62</v>
       </c>
@@ -4276,7 +4290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>65</v>
       </c>
@@ -4301,7 +4315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>70</v>
       </c>
@@ -4326,7 +4340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4339,7 +4353,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -4347,7 +4361,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4355,7 +4369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4363,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -4371,7 +4385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4379,7 +4393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4387,12 +4401,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4427,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>127</v>
       </c>
@@ -4456,7 +4470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>128</v>
       </c>
@@ -4481,7 +4495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -4506,7 +4520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>52</v>
       </c>
@@ -4531,7 +4545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>54</v>
       </c>
@@ -4556,7 +4570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
@@ -4581,7 +4595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>58</v>
       </c>
@@ -4606,7 +4620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>60</v>
       </c>
@@ -4631,7 +4645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>45</v>
       </c>
@@ -4656,7 +4670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>62</v>
       </c>
@@ -4681,7 +4695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>65</v>
       </c>
@@ -4706,7 +4720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>70</v>
       </c>
@@ -4731,7 +4745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4744,7 +4758,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -4752,7 +4766,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4760,7 +4774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4768,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -4776,7 +4790,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4784,7 +4798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4792,12 +4806,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>129</v>
       </c>
@@ -4861,7 +4875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>130</v>
       </c>
@@ -4886,7 +4900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -4911,7 +4925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>52</v>
       </c>
@@ -4936,7 +4950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>54</v>
       </c>
@@ -4961,7 +4975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>56</v>
       </c>
@@ -4986,7 +5000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>58</v>
       </c>
@@ -5011,7 +5025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>60</v>
       </c>
@@ -5036,7 +5050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>45</v>
       </c>
@@ -5061,7 +5075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>62</v>
       </c>
@@ -5086,7 +5100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>65</v>
       </c>
@@ -5111,7 +5125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>70</v>
       </c>
@@ -5136,7 +5150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5149,7 +5163,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5162,7 +5176,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -5170,7 +5184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5178,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -5186,7 +5200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5194,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5202,7 +5216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -5218,7 +5232,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -5226,12 +5240,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5260,7 +5274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>126</v>
       </c>
@@ -5284,7 +5298,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>139</v>
       </c>
@@ -5307,7 +5321,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -5331,7 +5345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>110</v>
       </c>
@@ -5358,10 +5372,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
@@ -5369,7 +5383,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5377,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -5385,7 +5399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5393,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5401,7 +5415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5409,7 +5423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>28</v>
       </c>
@@ -5417,7 +5431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -5425,12 +5439,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -5459,7 +5473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>118</v>
       </c>
@@ -5483,7 +5497,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>139</v>
       </c>
@@ -5506,7 +5520,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -5530,7 +5544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>110</v>
       </c>
@@ -5557,10 +5571,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5576,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -5584,7 +5598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5592,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5600,7 +5614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5608,7 +5622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -5616,7 +5630,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -5624,12 +5638,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5658,7 +5672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>128</v>
       </c>
@@ -5682,7 +5696,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>139</v>
       </c>
@@ -5705,7 +5719,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -5729,7 +5743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>110</v>
       </c>
@@ -5756,10 +5770,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" s="5"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
@@ -5767,7 +5781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5775,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -5783,7 +5797,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +5805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5799,7 +5813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5807,7 +5821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>28</v>
       </c>
@@ -5815,7 +5829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -5823,12 +5837,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5857,7 +5871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>120</v>
       </c>
@@ -5881,7 +5895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>139</v>
       </c>
@@ -5904,7 +5918,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -5928,7 +5942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>110</v>
       </c>
@@ -5955,13 +5969,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
@@ -5969,7 +5983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5977,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -5985,7 +5999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5993,7 +6007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +6015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6009,7 +6023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>28</v>
       </c>
@@ -6017,7 +6031,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -6025,12 +6039,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -6059,7 +6073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>130</v>
       </c>
@@ -6083,7 +6097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>139</v>
       </c>
@@ -6106,7 +6120,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -6130,7 +6144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>110</v>
       </c>
@@ -6157,10 +6171,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
@@ -6168,7 +6182,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -6176,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -6184,7 +6198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6192,7 +6206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6208,7 +6222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>28</v>
       </c>
@@ -6216,7 +6230,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -6224,12 +6238,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -6258,7 +6272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>122</v>
       </c>
@@ -6282,7 +6296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>139</v>
       </c>
@@ -6305,7 +6319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -6329,7 +6343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>110</v>
       </c>
@@ -6356,13 +6370,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
@@ -6370,7 +6384,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -6378,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -6386,7 +6400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6394,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6402,7 +6416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -6410,7 +6424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -6418,7 +6432,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -6426,12 +6440,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -6460,7 +6474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>124</v>
       </c>
@@ -6484,7 +6498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>139</v>
       </c>
@@ -6507,7 +6521,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -6531,7 +6545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>110</v>
       </c>
@@ -6558,10 +6572,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
@@ -6569,7 +6583,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6577,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -6585,7 +6599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6601,7 +6615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6609,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>28</v>
       </c>
@@ -6617,7 +6631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -6625,12 +6639,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6659,7 +6673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>116</v>
       </c>
@@ -6683,7 +6697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>139</v>
       </c>
@@ -6706,7 +6720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -6730,7 +6744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>110</v>
       </c>
@@ -6757,10 +6771,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6768,7 +6782,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6776,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6784,7 +6798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -6792,7 +6806,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6800,7 +6814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6808,7 +6822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6816,7 +6830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6824,7 +6838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>28</v>
       </c>
@@ -6832,7 +6846,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
@@ -6840,12 +6854,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6871,7 +6885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>140</v>
       </c>
@@ -6894,7 +6908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>139</v>
       </c>
@@ -6917,7 +6931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6940,7 +6954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>112</v>
       </c>
@@ -6961,7 +6975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>114</v>
       </c>
@@ -6981,7 +6995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>104</v>
       </c>
@@ -7004,7 +7018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
@@ -7012,7 +7026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -7020,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2</v>
       </c>
@@ -7028,7 +7042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7036,7 +7050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -7044,7 +7058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -7052,7 +7066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -7060,7 +7074,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>22</v>
       </c>
@@ -7068,12 +7082,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -7099,7 +7113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>104</v>
       </c>
@@ -7123,7 +7137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>140</v>
       </c>
@@ -7146,7 +7160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>45</v>
       </c>
@@ -7170,7 +7184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7194,7 +7208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -7218,7 +7232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -7242,7 +7256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -7266,7 +7280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>110</v>
       </c>
@@ -7290,7 +7304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>112</v>
       </c>
@@ -7313,14 +7327,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B287" r:id="rId1"/>
-    <hyperlink ref="B272" r:id="rId2"/>
-    <hyperlink ref="B256" r:id="rId3"/>
-    <hyperlink ref="B241" r:id="rId4"/>
-    <hyperlink ref="B225" r:id="rId5"/>
-    <hyperlink ref="B210" r:id="rId6"/>
-    <hyperlink ref="B195" r:id="rId7"/>
-    <hyperlink ref="B180" r:id="rId8"/>
+    <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B256" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B241" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B225" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B210" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B195" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7D919-A9D7-B546-B576-C05492D2D30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8675D0EC-33F1-A94B-B95D-52340CAB7FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
   <si>
     <t>Activity</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
+  </si>
+  <si>
+    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -975,69 +978,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1069,7 +1072,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1139,7 +1142,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1174,7 +1177,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1221,43 +1224,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1289,7 +1292,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1359,7 +1362,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1394,7 +1397,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1429,46 +1432,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1502,7 +1505,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1578,7 +1581,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1616,7 +1619,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1654,46 +1657,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1727,7 +1730,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1803,7 +1806,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1841,7 +1844,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1886,14 +1889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1903,7 +1907,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1911,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1935,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1979,13 +1983,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1996,7 +2000,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2017,15 +2021,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2045,7 +2049,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2075,13 +2079,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2095,12 +2099,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2120,12 +2124,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2145,12 +2149,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2170,18 +2174,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2195,18 +2199,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2220,21 +2224,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2245,12 +2249,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2259,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2270,18 +2274,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2295,7 +2299,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2316,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2340,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2384,13 +2388,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -2401,7 +2405,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2422,15 +2426,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2450,7 +2454,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -2480,13 +2484,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2500,12 +2504,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2525,12 +2529,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2550,12 +2554,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2575,18 +2579,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -2600,18 +2604,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2625,21 +2629,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2650,12 +2654,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2664,7 +2668,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2675,18 +2679,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -2700,7 +2704,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2721,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2745,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2789,13 +2793,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2806,7 +2810,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2827,15 +2831,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2855,7 +2859,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2885,13 +2889,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2905,12 +2909,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2930,12 +2934,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2955,12 +2959,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2980,18 +2984,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -3005,18 +3009,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3030,21 +3034,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3055,12 +3059,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3069,7 +3073,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3080,18 +3084,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3105,7 +3109,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3126,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -3150,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3194,13 +3198,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
@@ -3211,7 +3215,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3232,15 +3236,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3260,7 +3264,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3290,13 +3294,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3310,12 +3314,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3335,12 +3339,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3360,12 +3364,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3385,18 +3389,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>27</v>
@@ -3410,18 +3414,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3435,21 +3439,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3460,12 +3464,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3474,7 +3478,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3485,18 +3489,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>27</v>
@@ -3510,7 +3514,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3544,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -3568,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -3612,13 +3616,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3650,15 +3654,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3678,7 +3682,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -3708,13 +3712,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3728,12 +3732,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3753,12 +3757,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3778,12 +3782,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3803,18 +3807,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>27</v>
@@ -3828,18 +3832,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3853,21 +3857,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3878,12 +3882,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3892,7 +3896,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3903,18 +3907,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3928,7 +3932,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -3949,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -3973,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -4017,13 +4021,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4034,7 +4038,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4055,15 +4059,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4083,7 +4087,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4113,13 +4117,13 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4133,12 +4137,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4158,12 +4162,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4183,12 +4187,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4208,18 +4212,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>27</v>
@@ -4233,18 +4237,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4258,21 +4262,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4283,12 +4287,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4297,7 +4301,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4308,18 +4312,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>27</v>
@@ -4333,7 +4337,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -4354,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -4378,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -4422,13 +4426,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -4439,7 +4443,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4460,15 +4464,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4488,7 +4492,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -4518,13 +4522,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4538,12 +4542,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4563,12 +4567,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4588,12 +4592,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4613,18 +4617,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>27</v>
@@ -4638,18 +4642,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4663,21 +4667,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4688,12 +4692,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4702,7 +4706,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4713,18 +4717,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>27</v>
@@ -4738,7 +4742,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -4759,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -4783,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -4827,13 +4831,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -4844,7 +4848,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4865,15 +4869,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4893,7 +4897,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -4923,13 +4927,13 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4943,12 +4947,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4968,12 +4972,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4993,12 +4997,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5018,18 +5022,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>27</v>
@@ -5043,18 +5047,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5068,21 +5072,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5093,12 +5097,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5107,7 +5111,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5118,18 +5122,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>27</v>
@@ -5143,7 +5147,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -5177,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -5193,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
@@ -5225,7 +5229,7 @@
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -5233,7 +5237,7 @@
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -5272,7 +5276,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5288,15 +5292,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B184" s="5">
         <v>2.3730000000000002</v>
@@ -5311,10 +5315,10 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H184" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -5343,7 +5347,7 @@
     </row>
     <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B186" s="5">
         <f>0.01*B184</f>
@@ -5362,10 +5366,10 @@
         <v>24</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I186" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -5376,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -5392,7 +5396,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -5424,7 +5428,7 @@
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -5432,7 +5436,7 @@
         <v>22</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5471,7 +5475,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5487,15 +5491,15 @@
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B199" s="5">
         <v>1.93</v>
@@ -5510,10 +5514,10 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H199" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5542,7 +5546,7 @@
     </row>
     <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B201" s="5">
         <f>0.01*B199</f>
@@ -5561,10 +5565,10 @@
         <v>24</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I201" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -5575,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5591,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -5623,7 +5627,7 @@
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -5631,7 +5635,7 @@
         <v>22</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -5670,7 +5674,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B213" s="3">
         <v>1</v>
@@ -5686,15 +5690,15 @@
         <v>18</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B214" s="5">
         <v>2.4510000000000001</v>
@@ -5709,10 +5713,10 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H214" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -5741,7 +5745,7 @@
     </row>
     <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B216" s="5">
         <f>0.01*B214</f>
@@ -5760,10 +5764,10 @@
         <v>24</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I216" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -5774,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -5790,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -5822,7 +5826,7 @@
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -5830,7 +5834,7 @@
         <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -5869,7 +5873,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -5885,15 +5889,15 @@
         <v>18</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B229" s="5">
         <v>2.57</v>
@@ -5908,10 +5912,10 @@
         <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H229" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -5940,7 +5944,7 @@
     </row>
     <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B231" s="5">
         <f>0.01*B229</f>
@@ -5959,10 +5963,10 @@
         <v>24</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I231" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -5976,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -5992,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6024,7 +6028,7 @@
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -6032,7 +6036,7 @@
         <v>22</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6071,7 +6075,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
@@ -6087,15 +6091,15 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B245" s="5">
         <v>2.371</v>
@@ -6110,10 +6114,10 @@
         <v>14</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H245" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -6142,7 +6146,7 @@
     </row>
     <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B247" s="5">
         <f>0.01*B245</f>
@@ -6161,10 +6165,10 @@
         <v>24</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I247" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -6175,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -6191,7 +6195,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -6223,7 +6227,7 @@
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -6231,7 +6235,7 @@
         <v>22</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -6270,7 +6274,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B259" s="3">
         <v>1</v>
@@ -6286,15 +6290,15 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B260" s="5">
         <v>4.5599999999999996</v>
@@ -6309,10 +6313,10 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H260" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -6341,7 +6345,7 @@
     </row>
     <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B262" s="5">
         <f>0.01*B260</f>
@@ -6360,10 +6364,10 @@
         <v>24</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I262" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6377,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -6393,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -6425,7 +6429,7 @@
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -6433,7 +6437,7 @@
         <v>22</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -6472,7 +6476,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B275" s="3">
         <v>1</v>
@@ -6488,15 +6492,15 @@
         <v>18</v>
       </c>
       <c r="G275" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B276" s="5">
         <v>2.5350000000000001</v>
@@ -6511,10 +6515,10 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H276" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -6543,7 +6547,7 @@
     </row>
     <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B278" s="5">
         <f>0.01*B276</f>
@@ -6562,10 +6566,10 @@
         <v>24</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I278" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -6576,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -6592,7 +6596,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -6624,7 +6628,7 @@
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -6632,7 +6636,7 @@
         <v>22</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -6671,7 +6675,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B290" s="3">
         <v>1</v>
@@ -6687,15 +6691,15 @@
         <v>18</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B291" s="5">
         <v>1.77</v>
@@ -6710,10 +6714,10 @@
         <v>14</v>
       </c>
       <c r="G291" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H291" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -6742,7 +6746,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B291</f>
@@ -6761,10 +6765,10 @@
         <v>24</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I293" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -6775,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -6799,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -6839,7 +6843,7 @@
         <v>28</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -6847,7 +6851,7 @@
         <v>22</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -6883,7 +6887,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6898,7 +6902,7 @@
         <v>14</v>
       </c>
       <c r="G307" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H307" t="s">
         <v>3</v>
@@ -6906,7 +6910,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6921,7 +6925,7 @@
         <v>18</v>
       </c>
       <c r="G308" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H308" t="s">
         <v>3</v>
@@ -6952,7 +6956,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6973,7 +6977,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -6993,7 +6997,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B312">
         <v>12.456827894327896</v>
@@ -7008,7 +7012,7 @@
         <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
@@ -7019,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -7035,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -7067,7 +7071,7 @@
         <v>28</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7075,7 +7079,7 @@
         <v>22</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7111,7 +7115,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B324">
         <f>12.89</f>
@@ -7127,7 +7131,7 @@
         <v>14</v>
       </c>
       <c r="G324" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H324" t="s">
         <v>41</v>
@@ -7135,7 +7139,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7150,7 +7154,7 @@
         <v>18</v>
       </c>
       <c r="G325" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H325" t="s">
         <v>41</v>
@@ -7158,14 +7162,14 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B326" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D326" t="s">
         <v>13</v>
@@ -7174,7 +7178,7 @@
         <v>14</v>
       </c>
       <c r="G326" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H326" t="s">
         <v>24</v>
@@ -7278,7 +7282,7 @@
     </row>
     <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B331" s="5">
         <f>6240000/44900000</f>
@@ -7294,7 +7298,7 @@
         <v>14</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H331" t="s">
         <v>41</v>
@@ -7302,7 +7306,7 @@
     </row>
     <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B332" s="5">
         <v>-1.69</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8675D0EC-33F1-A94B-B95D-52340CAB7FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4BAF1-4F18-9D49-AB47-01732401492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34060" yWindow="-560" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCI!$A$1:$K$332</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -368,9 +371,6 @@
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
     <t>Carbon dioxide, fossil</t>
   </si>
   <si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>methanol synthesis, hydrogen from coal gasification</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -470,9 +473,23 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -602,44 +619,41 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -993,12 +1007,12 @@
       <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1006,426 +1020,422 @@
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
         <v>19</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1.55</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
         <v>44</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <f>D12*C12</f>
         <v>16.059999999999999</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <f>E12/SUM($E$12:$E$15)</f>
         <v>0.36968151224138407</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <f>F12*$D$10/D12</f>
         <v>2.2889868977137753</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="12">
         <f>-$H$10*G12</f>
         <v>-3.5479296914563516</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>3.16</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="12">
         <f>I12+H12</f>
         <v>-0.38792969145635148</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
         <v>45.5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <f t="shared" ref="E13:E15" si="0">D13*C13</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <f t="shared" ref="F13:F15" si="1">E13/SUM($E$12:$E$15)</f>
         <v>9.0072463100905095E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G15" si="2">F13*$D$10/D13</f>
         <v>2.3670205419540173</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <f t="shared" ref="H13:H15" si="3">-$H$10*G13</f>
         <v>-3.6688818400287269</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>3.01</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="12">
         <f t="shared" ref="J13:J15" si="4">I13+H13</f>
         <v>-0.65888184002872707</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
         <v>43.4</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>4.4701999999999993</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>0.10289852403620392</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>2.2577734400176781</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>-3.4995488320274011</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>3.14</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>-0.35954883202740096</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
         <v>42.6</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>18.999600000000001</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <f t="shared" si="1"/>
         <v>0.43734750062150696</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="2"/>
         <v>2.2161554964228825</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <f t="shared" si="3"/>
         <v>-3.4350410194554679</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>-0.43504101945546791</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <v>19</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
         <v>1.55</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9">
         <v>44</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>0.183</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <f>D21*C21</f>
         <v>8.0519999999999996</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <f>E21/SUM($E$21:$E$24)</f>
         <v>0.18519540737469639</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <f>F21*$D$19/D21</f>
         <v>2.28711268123942</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <f>-$H$19*G21</f>
         <v>-3.5450246559211012</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>3.16</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="12">
         <f>I21+H21</f>
         <v>-0.38502465592110102</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
         <v>45.5</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <f t="shared" ref="E22:E24" si="5">D22*C22</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <f t="shared" ref="F22:F24" si="6">E22/SUM($E$21:$E$24)</f>
         <v>8.9998712004121587E-2</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f t="shared" ref="G22:G24" si="7">F22*$D$19/D22</f>
         <v>2.3650824317362185</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="12">
         <f t="shared" ref="H22:H24" si="8">-$H$19*G22</f>
         <v>-3.6658777691911388</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>3.01</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="12">
         <f t="shared" ref="J22:J24" si="9">I22+H22</f>
         <v>-0.65587776919113905</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9">
         <v>43.4</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <f t="shared" si="5"/>
         <v>20.224399999999999</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <f t="shared" si="6"/>
         <v>0.46515971148892321</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <f t="shared" si="7"/>
         <v>2.2559247810407004</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="12">
         <f t="shared" si="8"/>
         <v>-3.4966834106130857</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>3.14</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="12">
         <f t="shared" si="9"/>
         <v>-0.35668341061308562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9">
         <v>42.6</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <f t="shared" si="5"/>
         <v>11.289000000000001</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <f t="shared" si="6"/>
         <v>0.2596461691322588</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <f t="shared" si="7"/>
         <v>2.2143409141090751</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f t="shared" si="8"/>
         <v>-3.4322284168690667</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <v>3</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <f t="shared" si="9"/>
         <v>-0.43222841686906666</v>
       </c>
@@ -1434,223 +1444,223 @@
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
         <v>19</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20">
         <v>1.55</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20">
         <v>44</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0.4</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="23">
         <f t="shared" ref="F30:F33" si="10">E30*D30</f>
         <v>0.14599999999999999</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="24">
         <f>F30/SUM($F$30:$F$33)</f>
         <v>0.38761130550673545</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="25">
         <f>G30*$D$28/D30</f>
         <v>2.4000042477951289</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="26">
         <f>-$I$28*H30</f>
         <v>-3.7200065840824497</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="20">
         <v>3.16</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="26">
         <f>J30+I30</f>
         <v>-0.56000658408244952</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20">
         <v>45.5</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="23">
         <f t="shared" si="10"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="24">
         <f t="shared" ref="G31:G33" si="11">F31/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="26">
         <f t="shared" ref="H31:H33" si="12">G31*$D$28/D31</f>
         <v>1.656002930978639</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="26">
         <f t="shared" ref="I31:I33" si="13">-$I$28*H31</f>
         <v>-2.5668045430168904</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="26">
         <v>3.01</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="26">
         <f t="shared" ref="K31:K33" si="14">J31+I31</f>
         <v>0.44319545698310936</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20">
         <v>43.4</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="27">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="23">
         <v>0.71</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="23">
         <f t="shared" si="10"/>
         <v>7.3129999999999987E-2</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="24">
         <f t="shared" si="11"/>
         <v>0.19415078610758602</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="26">
         <f t="shared" si="12"/>
         <v>4.2600075398363533</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="26">
         <f t="shared" si="13"/>
         <v>-6.6030116867463482</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="26">
         <v>3.14</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="26">
         <f t="shared" si="14"/>
         <v>-3.4630116867463481</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20">
         <v>42.6</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="28">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="23">
         <v>0.3</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="23">
         <f t="shared" si="10"/>
         <v>0.1338</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="24">
         <f t="shared" si="11"/>
         <v>0.35522186764932334</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="25">
         <f t="shared" si="12"/>
         <v>1.8000031858463468</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="26">
         <f t="shared" si="13"/>
         <v>-2.7900049380618377</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="20">
         <v>3</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="26">
         <f t="shared" si="14"/>
         <v>0.20999506193816231</v>
       </c>
@@ -1659,223 +1669,223 @@
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20">
         <v>19</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20">
         <v>1.55</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20">
         <v>44</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="22">
         <v>0.183</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="23">
         <v>0.4</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="23">
         <f t="shared" ref="F39:F42" si="15">E39*D39</f>
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="24">
         <f>F39/SUM($F$30:$F$33)</f>
         <v>0.19433662714447286</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="26">
         <f>G39*$D$37/D39</f>
         <v>2.4000042477951293</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="26">
         <f>-$I$28*H39</f>
         <v>-3.7200065840824506</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="20">
         <v>3.16</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="26">
         <f>J39+I39</f>
         <v>-0.56000658408245041</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20">
         <v>45.5</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="23">
         <f t="shared" si="15"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="24">
         <f t="shared" ref="G40:G42" si="16">F40/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="26">
         <f t="shared" ref="H40:H42" si="17">G40*$D$37/D40</f>
         <v>1.656002930978639</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="26">
         <f t="shared" ref="I40:I42" si="18">-$I$28*H40</f>
         <v>-2.5668045430168904</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="26">
         <v>3.01</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="26">
         <f t="shared" ref="K40:K42" si="19">J40+I40</f>
         <v>0.44319545698310936</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20">
         <v>43.4</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="27">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="23">
         <v>0.71</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="23">
         <f t="shared" si="15"/>
         <v>0.33085999999999999</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="24">
         <f t="shared" si="16"/>
         <v>0.87839093520519518</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="25">
         <f t="shared" si="17"/>
         <v>4.2600075398363533</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="26">
         <f t="shared" si="18"/>
         <v>-6.6030116867463482</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="26">
         <v>3.14</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="26">
         <f t="shared" si="19"/>
         <v>-3.4630116867463481</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20">
         <v>42.6</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="28">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="23">
         <v>0.3</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="23">
         <f t="shared" si="15"/>
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="24">
         <f t="shared" si="16"/>
         <v>0.21106232046428405</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="26">
         <f t="shared" si="17"/>
         <v>1.8000031858463468</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="26">
         <f t="shared" si="18"/>
         <v>-2.7900049380618377</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="20">
         <v>3</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="26">
         <f t="shared" si="19"/>
         <v>0.20999506193816231</v>
       </c>
@@ -1887,10 +1897,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1900,6 +1911,7 @@
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1910,15 +1922,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1926,7 +1939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1934,15 +1947,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1958,12 +1971,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1998,332 +2011,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>100</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1.00057</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2331,7 +2276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2339,15 +2284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2355,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2363,12 +2308,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2403,332 +2348,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1.00057</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2736,7 +2613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2744,15 +2621,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2760,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2768,12 +2645,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2808,332 +2685,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3">
-        <v>100</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>1.00057</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +2950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3149,15 +2958,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3165,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3173,12 +2982,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3213,345 +3022,267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3">
-        <v>100</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>1.00057</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C76" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3" t="s">
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>58</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3" t="s">
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3" t="s">
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3" t="s">
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3567,15 +3298,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3583,7 +3314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3591,12 +3322,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3631,332 +3362,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96" t="s">
+        <v>51</v>
+      </c>
+      <c r="K96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3">
-        <v>100</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>1.00057</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3" t="s">
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" t="s">
         <v>46</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3" t="s">
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>54</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3" t="s">
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3" t="s">
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>58</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3" t="s">
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>60</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s">
         <v>46</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3" t="s">
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s">
         <v>46</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3" t="s">
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>62</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3" t="s">
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" t="s">
         <v>63</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3" t="s">
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>70</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3972,15 +3635,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3996,12 +3659,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4036,332 +3699,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="3">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3">
-        <v>100</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>1.00057</v>
       </c>
       <c r="C118" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3" t="s">
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C119" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3" t="s">
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>52</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" t="s">
         <v>46</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3" t="s">
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>54</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3" t="s">
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" t="s">
         <v>6</v>
       </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3" t="s">
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>58</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3" t="s">
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>60</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" t="s">
         <v>46</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3" t="s">
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>45</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" t="s">
         <v>46</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3" t="s">
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>62</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" t="s">
         <v>46</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" t="s">
         <v>63</v>
       </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3" t="s">
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" t="s">
         <v>63</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3" t="s">
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" t="s">
         <v>46</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" t="s">
         <v>27</v>
       </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3" t="s">
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4369,7 +3964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4377,15 +3972,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4393,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4401,12 +3996,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4441,332 +4036,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138">
+        <v>100</v>
+      </c>
+      <c r="J138" t="s">
+        <v>51</v>
+      </c>
+      <c r="K138" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>127</v>
       </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3">
-        <v>100</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>1.00057</v>
       </c>
       <c r="C139" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3" t="s">
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C140" t="s">
         <v>25</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" t="s">
         <v>7</v>
       </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3" t="s">
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>52</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" t="s">
         <v>46</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3" t="s">
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>54</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3" t="s">
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>56</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>58</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" t="s">
         <v>19</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3" t="s">
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>60</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" t="s">
         <v>46</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" t="s">
         <v>27</v>
       </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>45</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3" t="s">
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>62</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" t="s">
         <v>46</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" t="s">
         <v>63</v>
       </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3" t="s">
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>65</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" t="s">
         <v>63</v>
       </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>70</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" t="s">
         <v>46</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" t="s">
         <v>27</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4774,7 +4301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4782,15 +4309,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4798,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4806,12 +4333,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4846,345 +4373,267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>128</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159" t="s">
+        <v>51</v>
+      </c>
+      <c r="K159" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>129</v>
       </c>
-      <c r="B159" s="3">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3">
-        <v>100</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>1.00057</v>
       </c>
       <c r="C160" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3" t="s">
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C161" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3" t="s">
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>52</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" t="s">
         <v>46</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3" t="s">
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>54</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3" t="s">
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>56</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3" t="s">
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>58</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" t="s">
         <v>19</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3" t="s">
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>60</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" t="s">
         <v>46</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" t="s">
         <v>27</v>
       </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3" t="s">
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>45</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" t="s">
         <v>46</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3" t="s">
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>62</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" t="s">
         <v>46</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" t="s">
         <v>63</v>
       </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3" t="s">
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>65</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" t="s">
         <v>63</v>
       </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3" t="s">
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>70</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" t="s">
         <v>27</v>
       </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5192,15 +4641,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5208,7 +4657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5216,7 +4665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5224,28 +4673,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>22</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5274,11 +4723,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B183" s="3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>125</v>
+      </c>
+      <c r="B183">
         <v>1</v>
       </c>
       <c r="C183" t="s">
@@ -5288,21 +4737,21 @@
         <v>13</v>
       </c>
       <c r="E183" s="2"/>
-      <c r="F183" s="3" t="s">
+      <c r="F183" t="s">
         <v>18</v>
       </c>
       <c r="G183" t="s">
         <v>44</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H183" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>139</v>
-      </c>
-      <c r="B184" s="5">
+        <v>138</v>
+      </c>
+      <c r="B184" s="4">
         <v>2.3730000000000002</v>
       </c>
       <c r="C184" t="s">
@@ -5321,11 +4770,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>33</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <f>18.4/1000*B184</f>
         <v>4.3663200000000006E-2</v>
       </c>
@@ -5346,10 +4795,10 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <f>0.01*B184</f>
         <v>2.3730000000000001E-2</v>
       </c>
@@ -5365,25 +4814,25 @@
       <c r="G186" t="s">
         <v>24</v>
       </c>
-      <c r="H186" s="4" t="s">
-        <v>111</v>
+      <c r="H186" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I186" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B187" s="5"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5391,15 +4840,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5407,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5415,7 +4864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5423,28 +4872,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>22</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -5473,11 +4922,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B198" s="3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>117</v>
+      </c>
+      <c r="B198">
         <v>1</v>
       </c>
       <c r="C198" t="s">
@@ -5487,21 +4936,21 @@
         <v>13</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="F198" s="3" t="s">
+      <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="G198" t="s">
         <v>44</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="H198" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>139</v>
-      </c>
-      <c r="B199" s="5">
+        <v>138</v>
+      </c>
+      <c r="B199" s="4">
         <v>1.93</v>
       </c>
       <c r="C199" t="s">
@@ -5520,11 +4969,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>33</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <f>18.4/1000*B199</f>
         <v>3.5511999999999995E-2</v>
       </c>
@@ -5545,10 +4994,10 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <f>0.01*B199</f>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -5564,25 +5013,25 @@
       <c r="G201" t="s">
         <v>24</v>
       </c>
-      <c r="H201" s="4" t="s">
-        <v>111</v>
+      <c r="H201" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I201" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B202" s="5"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5590,15 +5039,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5606,7 +5055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5614,7 +5063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5622,28 +5071,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>22</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5672,11 +5121,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B213" s="3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>127</v>
+      </c>
+      <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
@@ -5686,21 +5135,21 @@
         <v>13</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213" s="3" t="s">
+      <c r="F213" t="s">
         <v>18</v>
       </c>
       <c r="G213" t="s">
         <v>44</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="H213" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>139</v>
-      </c>
-      <c r="B214" s="5">
+        <v>138</v>
+      </c>
+      <c r="B214" s="4">
         <v>2.4510000000000001</v>
       </c>
       <c r="C214" t="s">
@@ -5719,11 +5168,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>33</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <f>18.4/1000*B214</f>
         <v>4.5098400000000004E-2</v>
       </c>
@@ -5744,10 +5193,10 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="4">
         <f>0.01*B214</f>
         <v>2.4510000000000001E-2</v>
       </c>
@@ -5763,25 +5212,25 @@
       <c r="G216" t="s">
         <v>24</v>
       </c>
-      <c r="H216" s="4" t="s">
-        <v>111</v>
+      <c r="H216" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I216" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B217" s="5"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5789,15 +5238,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5805,7 +5254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5813,7 +5262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5821,28 +5270,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5871,11 +5320,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B228" s="3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>119</v>
+      </c>
+      <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
@@ -5885,21 +5334,21 @@
         <v>13</v>
       </c>
       <c r="E228" s="2"/>
-      <c r="F228" s="3" t="s">
+      <c r="F228" t="s">
         <v>18</v>
       </c>
       <c r="G228" t="s">
         <v>44</v>
       </c>
-      <c r="H228" s="3" t="s">
+      <c r="H228" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>139</v>
-      </c>
-      <c r="B229" s="5">
+        <v>138</v>
+      </c>
+      <c r="B229" s="4">
         <v>2.57</v>
       </c>
       <c r="C229" t="s">
@@ -5918,11 +5367,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>33</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="4">
         <f>18.4/1000*B229</f>
         <v>4.7287999999999997E-2</v>
       </c>
@@ -5943,10 +5392,10 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="4">
         <f>0.01*B229</f>
         <v>2.5700000000000001E-2</v>
       </c>
@@ -5962,28 +5411,28 @@
       <c r="G231" t="s">
         <v>24</v>
       </c>
-      <c r="H231" s="4" t="s">
-        <v>111</v>
+      <c r="H231" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I231" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B232" s="5"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B233" s="5"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5991,15 +5440,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -6007,7 +5456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6015,7 +5464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6023,28 +5472,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -6073,11 +5522,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B244" s="3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>129</v>
+      </c>
+      <c r="B244">
         <v>1</v>
       </c>
       <c r="C244" t="s">
@@ -6087,21 +5536,21 @@
         <v>13</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="F244" s="3" t="s">
+      <c r="F244" t="s">
         <v>18</v>
       </c>
       <c r="G244" t="s">
         <v>44</v>
       </c>
-      <c r="H244" s="3" t="s">
+      <c r="H244" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>139</v>
-      </c>
-      <c r="B245" s="5">
+        <v>138</v>
+      </c>
+      <c r="B245" s="4">
         <v>2.371</v>
       </c>
       <c r="C245" t="s">
@@ -6120,11 +5569,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>33</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <f>18.4/1000*B245</f>
         <v>4.3626399999999996E-2</v>
       </c>
@@ -6145,10 +5594,10 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="4">
         <f>0.01*B245</f>
         <v>2.3710000000000002E-2</v>
       </c>
@@ -6164,25 +5613,25 @@
       <c r="G247" t="s">
         <v>24</v>
       </c>
-      <c r="H247" s="4" t="s">
-        <v>111</v>
+      <c r="H247" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I247" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B248" s="5"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="4"/>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -6190,15 +5639,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6206,7 +5655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6214,7 +5663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6222,28 +5671,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -6272,11 +5721,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B259" s="3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>121</v>
+      </c>
+      <c r="B259">
         <v>1</v>
       </c>
       <c r="C259" t="s">
@@ -6286,21 +5735,21 @@
         <v>13</v>
       </c>
       <c r="E259" s="2"/>
-      <c r="F259" s="3" t="s">
+      <c r="F259" t="s">
         <v>18</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="H259" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>139</v>
-      </c>
-      <c r="B260" s="5">
+        <v>138</v>
+      </c>
+      <c r="B260" s="4">
         <v>4.5599999999999996</v>
       </c>
       <c r="C260" t="s">
@@ -6319,11 +5768,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>33</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="4">
         <f>18.4/1000*B260</f>
         <v>8.3903999999999992E-2</v>
       </c>
@@ -6344,10 +5793,10 @@
       </c>
     </row>
     <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B262" s="5">
+      <c r="B262" s="4">
         <f>0.01*B260</f>
         <v>4.5599999999999995E-2</v>
       </c>
@@ -6363,28 +5812,28 @@
       <c r="G262" t="s">
         <v>24</v>
       </c>
-      <c r="H262" s="4" t="s">
-        <v>111</v>
+      <c r="H262" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I262" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B263" s="5"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B264" s="5"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="4"/>
+    </row>
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="4"/>
+    </row>
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -6392,15 +5841,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6408,7 +5857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6416,7 +5865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -6424,28 +5873,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>22</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -6474,11 +5923,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B275" s="3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>123</v>
+      </c>
+      <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
@@ -6488,21 +5937,21 @@
         <v>13</v>
       </c>
       <c r="E275" s="2"/>
-      <c r="F275" s="3" t="s">
+      <c r="F275" t="s">
         <v>18</v>
       </c>
       <c r="G275" t="s">
         <v>44</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="H275" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>139</v>
-      </c>
-      <c r="B276" s="5">
+        <v>138</v>
+      </c>
+      <c r="B276" s="4">
         <v>2.5350000000000001</v>
       </c>
       <c r="C276" t="s">
@@ -6521,11 +5970,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>33</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277" s="4">
         <f>18.4/1000*B276</f>
         <v>4.6644000000000005E-2</v>
       </c>
@@ -6546,10 +5995,10 @@
       </c>
     </row>
     <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B278" s="5">
+      <c r="B278" s="4">
         <f>0.01*B276</f>
         <v>2.5350000000000001E-2</v>
       </c>
@@ -6565,25 +6014,25 @@
       <c r="G278" t="s">
         <v>24</v>
       </c>
-      <c r="H278" s="4" t="s">
-        <v>111</v>
+      <c r="H278" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I278" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B279" s="5"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="4"/>
+    </row>
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6591,15 +6040,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6607,7 +6056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6615,7 +6064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6623,28 +6072,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6673,11 +6122,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B290" s="3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>115</v>
+      </c>
+      <c r="B290">
         <v>1</v>
       </c>
       <c r="C290" t="s">
@@ -6687,21 +6136,21 @@
         <v>13</v>
       </c>
       <c r="E290" s="2"/>
-      <c r="F290" s="3" t="s">
+      <c r="F290" t="s">
         <v>18</v>
       </c>
       <c r="G290" t="s">
         <v>44</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="H290" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>139</v>
-      </c>
-      <c r="B291" s="5">
+        <v>138</v>
+      </c>
+      <c r="B291" s="4">
         <v>1.77</v>
       </c>
       <c r="C291" t="s">
@@ -6720,11 +6169,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>33</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="4">
         <f>18.4/1000*B291</f>
         <v>3.2568E-2</v>
       </c>
@@ -6745,10 +6194,10 @@
       </c>
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="4">
         <f>0.01*B291</f>
         <v>1.77E-2</v>
       </c>
@@ -6764,25 +6213,25 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="4" t="s">
-        <v>111</v>
+      <c r="H293" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="I293" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B294" s="5"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="4"/>
+    </row>
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6790,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6798,7 +6247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -6806,7 +6255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6814,7 +6263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6822,7 +6271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6830,7 +6279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6838,28 +6287,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>28</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6885,9 +6334,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6908,9 +6357,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6931,7 +6380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6954,9 +6403,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6975,9 +6424,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -6995,7 +6444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>104</v>
       </c>
@@ -7018,15 +6467,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -7034,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2</v>
       </c>
@@ -7042,7 +6492,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7050,7 +6500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -7058,7 +6508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -7066,28 +6516,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
-      <c r="B320" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>22</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -7113,7 +6563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>104</v>
       </c>
@@ -7137,9 +6587,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7160,11 +6610,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>45</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="4">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
@@ -7184,11 +6634,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327" s="4">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
@@ -7208,11 +6658,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>34</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328" s="4">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
@@ -7232,11 +6682,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329" s="4">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
@@ -7256,11 +6706,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>38</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330" s="4">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
@@ -7281,10 +6731,10 @@
       </c>
     </row>
     <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A331" s="4" t="s">
+      <c r="A331" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331" s="4">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
@@ -7297,18 +6747,18 @@
       <c r="F331" t="s">
         <v>14</v>
       </c>
-      <c r="G331" s="4" t="s">
-        <v>111</v>
+      <c r="G331" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="H331" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A332" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B332" s="5">
+    <row r="332" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B332" s="4">
         <v>-1.69</v>
       </c>
       <c r="D332" t="s">
@@ -7320,12 +6770,19 @@
       <c r="F332" t="s">
         <v>17</v>
       </c>
-      <c r="G332" s="4"/>
+      <c r="G332" s="3"/>
       <c r="H332" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K332" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4F0F6-3C24-BD43-90B4-565355E55B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB29B6F6-A4CF-C442-9D6A-0D83E14BCB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="1960" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="139">
   <si>
     <t>Activity</t>
   </si>
@@ -107,9 +107,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>biosphere3</t>
-  </si>
-  <si>
     <t>ecoinvent</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
-    <t>Car db</t>
-  </si>
-  <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
   </si>
   <si>
     <t>Methanol-based fuels from coal</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
     <t>Carbon dioxide, fossil</t>
@@ -461,7 +452,10 @@
     <t>methanol synthesis, hydrogen from coal gasification</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
+    <t>hydrogen production, coal gasification</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
   </si>
 </sst>
 </file>
@@ -473,16 +467,9 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -619,40 +606,39 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -674,9 +660,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -714,7 +700,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -820,7 +806,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -962,7 +948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,69 +978,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9">
@@ -1086,7 +1072,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9">
@@ -1156,7 +1142,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
@@ -1191,7 +1177,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
@@ -1234,43 +1220,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9">
@@ -1302,7 +1288,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9">
@@ -1372,7 +1358,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9">
@@ -1407,7 +1393,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9">
@@ -1442,46 +1428,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="H27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="I27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20">
@@ -1515,7 +1501,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20">
@@ -1591,7 +1577,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20">
@@ -1629,7 +1615,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20">
@@ -1667,46 +1653,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="H36" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="I36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20">
@@ -1740,7 +1726,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20">
@@ -1816,7 +1802,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20">
@@ -1854,7 +1840,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20">
@@ -1897,10 +1883,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,26 +1905,27 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1945,15 +1933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1969,12 +1957,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1994,30 +1982,30 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -2029,21 +2017,21 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12">
         <v>1.00057</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -2052,18 +2040,18 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -2075,15 +2063,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2092,12 +2080,12 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5">
         <v>5.8399999999999999E-4</v>
@@ -2112,18 +2100,18 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -2132,12 +2120,12 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -2152,38 +2140,38 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -2192,89 +2180,89 @@
         <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>65</v>
       </c>
       <c r="B21">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2282,15 +2270,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2298,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2306,12 +2294,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2331,30 +2319,30 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>48</v>
       </c>
-      <c r="H31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2366,21 +2354,21 @@
         <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>1.00057</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2389,18 +2377,18 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -2412,15 +2400,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2429,12 +2417,12 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5">
         <v>5.8399999999999999E-4</v>
@@ -2449,18 +2437,18 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -2469,12 +2457,12 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -2489,38 +2477,38 @@
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2529,89 +2517,89 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>63</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>65</v>
       </c>
       <c r="B42">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="K43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2619,15 +2607,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2635,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2643,12 +2631,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2668,30 +2656,30 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
         <v>48</v>
       </c>
-      <c r="H52" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" t="s">
-        <v>50</v>
-      </c>
       <c r="J52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -2703,21 +2691,21 @@
         <v>100</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B54">
         <v>1.00057</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2726,18 +2714,18 @@
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -2749,15 +2737,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -2766,12 +2754,12 @@
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="5">
         <v>5.8399999999999999E-4</v>
@@ -2786,18 +2774,18 @@
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -2806,12 +2794,12 @@
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -2826,38 +2814,38 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B61" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2866,89 +2854,89 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>63</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>65</v>
       </c>
       <c r="B63">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
       </c>
       <c r="K64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2956,15 +2944,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +2960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2980,12 +2968,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3005,30 +2993,30 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
         <v>48</v>
       </c>
-      <c r="H73" t="s">
-        <v>49</v>
-      </c>
-      <c r="I73" t="s">
-        <v>50</v>
-      </c>
       <c r="J73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -3040,21 +3028,21 @@
         <v>100</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B75">
         <v>1.00057</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -3063,18 +3051,18 @@
         <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -3086,15 +3074,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -3103,12 +3091,12 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B78" s="5">
         <v>5.8399999999999999E-4</v>
@@ -3123,18 +3111,18 @@
         <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B79" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
@@ -3143,12 +3131,12 @@
         <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B80" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -3163,38 +3151,38 @@
         <v>14</v>
       </c>
       <c r="K80" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B81" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -3203,92 +3191,92 @@
         <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D83" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>63</v>
-      </c>
-      <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>65</v>
       </c>
       <c r="B84">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B85" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
       </c>
       <c r="K85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3296,15 +3284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3320,12 +3308,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3345,30 +3333,30 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
         <v>48</v>
       </c>
-      <c r="H95" t="s">
-        <v>49</v>
-      </c>
-      <c r="I95" t="s">
-        <v>50</v>
-      </c>
       <c r="J95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -3380,21 +3368,21 @@
         <v>100</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>1.00057</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -3403,18 +3391,18 @@
         <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B98">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -3426,15 +3414,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B99">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -3443,12 +3431,12 @@
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B100" s="5">
         <v>5.8399999999999999E-4</v>
@@ -3463,18 +3451,18 @@
         <v>14</v>
       </c>
       <c r="K100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B101" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
@@ -3483,12 +3471,12 @@
         <v>14</v>
       </c>
       <c r="K101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B102" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -3503,38 +3491,38 @@
         <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B103" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B104" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -3543,89 +3531,89 @@
         <v>14</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B105">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D105" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>63</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="K105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>65</v>
       </c>
       <c r="B106">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="K106" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B107" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3633,15 +3621,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3657,12 +3645,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3682,30 +3670,30 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
         <v>48</v>
       </c>
-      <c r="H116" t="s">
-        <v>49</v>
-      </c>
-      <c r="I116" t="s">
-        <v>50</v>
-      </c>
       <c r="J116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -3717,21 +3705,21 @@
         <v>100</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K117" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>1.00057</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -3740,18 +3728,18 @@
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B119">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -3763,15 +3751,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B120">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -3780,12 +3768,12 @@
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B121" s="5">
         <v>5.8399999999999999E-4</v>
@@ -3800,18 +3788,18 @@
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B122" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
         <v>6</v>
@@ -3820,12 +3808,12 @@
         <v>14</v>
       </c>
       <c r="K122" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B123" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -3840,38 +3828,38 @@
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B124" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B125" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -3880,89 +3868,89 @@
         <v>14</v>
       </c>
       <c r="K125" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B126">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D126" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>63</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="K126" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>65</v>
       </c>
       <c r="B127">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
       </c>
       <c r="K127" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B128" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -3970,15 +3958,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3986,7 +3974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3994,12 +3982,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4019,30 +4007,30 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
+        <v>46</v>
+      </c>
+      <c r="H137" t="s">
+        <v>47</v>
+      </c>
+      <c r="I137" t="s">
         <v>48</v>
       </c>
-      <c r="H137" t="s">
-        <v>49</v>
-      </c>
-      <c r="I137" t="s">
-        <v>50</v>
-      </c>
       <c r="J137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K137" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -4054,21 +4042,21 @@
         <v>100</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B139">
         <v>1.00057</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -4077,18 +4065,18 @@
         <v>14</v>
       </c>
       <c r="K139" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B140">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -4100,15 +4088,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B141">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
@@ -4117,12 +4105,12 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B142" s="5">
         <v>5.8399999999999999E-4</v>
@@ -4137,18 +4125,18 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B143" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
         <v>6</v>
@@ -4157,12 +4145,12 @@
         <v>14</v>
       </c>
       <c r="K143" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B144" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -4177,38 +4165,38 @@
         <v>14</v>
       </c>
       <c r="K144" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B145" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B146" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
@@ -4217,89 +4205,89 @@
         <v>14</v>
       </c>
       <c r="K146" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B147">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D147" t="s">
+        <v>61</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>63</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="K147" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>65</v>
       </c>
       <c r="B148">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B149" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
       </c>
       <c r="K149" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4307,15 +4295,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4323,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4331,12 +4319,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4356,30 +4344,30 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" t="s">
+        <v>47</v>
+      </c>
+      <c r="I158" t="s">
         <v>48</v>
       </c>
-      <c r="H158" t="s">
-        <v>49</v>
-      </c>
-      <c r="I158" t="s">
-        <v>50</v>
-      </c>
       <c r="J158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K158" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
         <v>13</v>
@@ -4391,21 +4379,21 @@
         <v>100</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K159" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B160">
         <v>1.00057</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -4414,18 +4402,18 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B161">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -4437,15 +4425,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B162">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -4454,12 +4442,12 @@
         <v>14</v>
       </c>
       <c r="K162" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B163" s="5">
         <v>5.8399999999999999E-4</v>
@@ -4474,18 +4462,18 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B164" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
         <v>6</v>
@@ -4494,12 +4482,12 @@
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B165" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -4514,38 +4502,38 @@
         <v>14</v>
       </c>
       <c r="K165" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B166" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
       </c>
       <c r="K166" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B167" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D167" t="s">
         <v>13</v>
@@ -4554,84 +4542,84 @@
         <v>14</v>
       </c>
       <c r="K167" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B168">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D168" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>63</v>
-      </c>
-      <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="K168" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>65</v>
       </c>
       <c r="B169">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
       </c>
       <c r="K169" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B170" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D170" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
       </c>
       <c r="K170" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -4639,15 +4627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4655,7 +4643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -4663,36 +4651,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B179" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -4718,18 +4706,18 @@
         <v>2</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
         <v>13</v>
@@ -4739,21 +4727,21 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H183" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B184" s="4">
         <v>2.3730000000000002</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
         <v>13</v>
@@ -4762,22 +4750,22 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H184" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B185" s="4">
         <f>18.4/1000*B184</f>
         <v>4.3663200000000006E-2</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -4786,22 +4774,22 @@
         <v>14</v>
       </c>
       <c r="G185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H185" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>110</v>
+      <c r="A186" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B186" s="4">
         <f>0.01*B184</f>
         <v>2.3730000000000001E-2</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
@@ -4810,27 +4798,27 @@
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H186" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -4838,15 +4826,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4854,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -4862,36 +4850,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -4917,18 +4905,18 @@
         <v>2</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>13</v>
@@ -4938,21 +4926,21 @@
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H198" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B199" s="4">
         <v>1.93</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
@@ -4961,22 +4949,22 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H199" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B200" s="4">
         <f>18.4/1000*B199</f>
         <v>3.5511999999999995E-2</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
@@ -4985,22 +4973,22 @@
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H200" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>110</v>
+      <c r="A201" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B201" s="4">
         <f>0.01*B199</f>
         <v>1.9300000000000001E-2</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -5009,27 +4997,27 @@
         <v>14</v>
       </c>
       <c r="G201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H201" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I201" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5037,15 +5025,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5053,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5061,36 +5049,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>22</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5116,18 +5104,18 @@
         <v>2</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
@@ -5137,21 +5125,21 @@
         <v>18</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H213" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B214" s="4">
         <v>2.4510000000000001</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
@@ -5160,22 +5148,22 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H214" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B215" s="4">
         <f>18.4/1000*B214</f>
         <v>4.5098400000000004E-2</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -5184,22 +5172,22 @@
         <v>14</v>
       </c>
       <c r="G215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H215" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
-        <v>110</v>
+      <c r="A216" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B216" s="4">
         <f>0.01*B214</f>
         <v>2.4510000000000001E-2</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
@@ -5208,27 +5196,27 @@
         <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H216" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I216" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5236,15 +5224,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5252,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5260,36 +5248,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5315,18 +5303,18 @@
         <v>2</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
         <v>13</v>
@@ -5336,21 +5324,21 @@
         <v>18</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H228" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B229" s="4">
         <v>2.57</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
@@ -5359,22 +5347,22 @@
         <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H229" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B230" s="4">
         <f>18.4/1000*B229</f>
         <v>4.7287999999999997E-2</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -5383,22 +5371,22 @@
         <v>14</v>
       </c>
       <c r="G230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H230" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
-        <v>110</v>
+      <c r="A231" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B231" s="4">
         <f>0.01*B229</f>
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D231" t="s">
         <v>13</v>
@@ -5407,30 +5395,30 @@
         <v>14</v>
       </c>
       <c r="G231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H231" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I231" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5438,15 +5426,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5454,7 +5442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -5462,36 +5450,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B240" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -5517,18 +5505,18 @@
         <v>2</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D244" t="s">
         <v>13</v>
@@ -5538,21 +5526,21 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H244" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B245" s="4">
         <v>2.371</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
         <v>13</v>
@@ -5561,22 +5549,22 @@
         <v>14</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H245" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B246" s="4">
         <f>18.4/1000*B245</f>
         <v>4.3626399999999996E-2</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -5585,22 +5573,22 @@
         <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H246" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
-        <v>110</v>
+      <c r="A247" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B247" s="4">
         <f>0.01*B245</f>
         <v>2.3710000000000002E-2</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D247" t="s">
         <v>13</v>
@@ -5609,27 +5597,27 @@
         <v>14</v>
       </c>
       <c r="G247" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H247" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I247" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -5637,15 +5625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
       <c r="B251" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5653,7 +5641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -5661,36 +5649,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
       <c r="B254" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B255" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -5716,18 +5704,18 @@
         <v>2</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
         <v>13</v>
@@ -5737,21 +5725,21 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H259" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B260" s="4">
         <v>4.5599999999999996</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
         <v>13</v>
@@ -5760,22 +5748,22 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H260" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B261" s="4">
         <f>18.4/1000*B260</f>
         <v>8.3903999999999992E-2</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
         <v>7</v>
@@ -5784,22 +5772,22 @@
         <v>14</v>
       </c>
       <c r="G261" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H261" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
-        <v>110</v>
+      <c r="A262" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B262" s="4">
         <f>0.01*B260</f>
         <v>4.5599999999999995E-2</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D262" t="s">
         <v>13</v>
@@ -5808,30 +5796,30 @@
         <v>14</v>
       </c>
       <c r="G262" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H262" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I262" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -5839,15 +5827,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
       <c r="B267" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5855,7 +5843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -5863,36 +5851,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>11</v>
       </c>
       <c r="B270" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>22</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -5918,18 +5906,18 @@
         <v>2</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D275" t="s">
         <v>13</v>
@@ -5939,21 +5927,21 @@
         <v>18</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H275" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B276" s="4">
         <v>2.5350000000000001</v>
       </c>
       <c r="C276" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D276" t="s">
         <v>13</v>
@@ -5962,22 +5950,22 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H276" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B277" s="4">
         <f>18.4/1000*B276</f>
         <v>4.6644000000000005E-2</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D277" t="s">
         <v>7</v>
@@ -5986,22 +5974,22 @@
         <v>14</v>
       </c>
       <c r="G277" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H277" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
-        <v>110</v>
+      <c r="A278" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B278" s="4">
         <f>0.01*B276</f>
         <v>2.5350000000000001E-2</v>
       </c>
       <c r="C278" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D278" t="s">
         <v>13</v>
@@ -6010,27 +5998,27 @@
         <v>14</v>
       </c>
       <c r="G278" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H278" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I278" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6038,15 +6026,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
       <c r="B282" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6054,7 +6042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6062,36 +6050,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
       <c r="B285" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B286" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6117,18 +6105,18 @@
         <v>2</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D290" t="s">
         <v>13</v>
@@ -6138,21 +6126,21 @@
         <v>18</v>
       </c>
       <c r="G290" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H290" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B291" s="4">
         <v>1.77</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
         <v>13</v>
@@ -6161,22 +6149,22 @@
         <v>14</v>
       </c>
       <c r="G291" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H291" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B292" s="4">
         <f>18.4/1000*B291</f>
         <v>3.2568E-2</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D292" t="s">
         <v>7</v>
@@ -6185,22 +6173,22 @@
         <v>14</v>
       </c>
       <c r="G292" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H292" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
-        <v>110</v>
+      <c r="A293" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B293" s="4">
         <f>0.01*B291</f>
         <v>1.77E-2</v>
       </c>
       <c r="C293" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D293" t="s">
         <v>13</v>
@@ -6209,27 +6197,27 @@
         <v>14</v>
       </c>
       <c r="G293" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H293" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I293" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6237,23 +6225,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>27</v>
+      </c>
+      <c r="B297" t="s">
         <v>28</v>
       </c>
-      <c r="B297" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6261,7 +6249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6269,44 +6257,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
       <c r="B301" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B303" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
       <c r="B304" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6328,19 +6316,17 @@
       <c r="G306" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H306" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H306" s="2"/>
+    </row>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D307" t="s">
         <v>13</v>
@@ -6349,21 +6335,18 @@
         <v>14</v>
       </c>
       <c r="G307" t="s">
-        <v>108</v>
-      </c>
-      <c r="H307" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D308" t="s">
         <v>13</v>
@@ -6372,21 +6355,18 @@
         <v>18</v>
       </c>
       <c r="G308" t="s">
-        <v>107</v>
-      </c>
-      <c r="H308" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B309">
         <v>3.5098030277376187</v>
       </c>
       <c r="C309" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D309" t="s">
         <v>15</v>
@@ -6395,15 +6375,12 @@
         <v>14</v>
       </c>
       <c r="G309" t="s">
-        <v>32</v>
-      </c>
-      <c r="H309" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6418,13 +6395,10 @@
       <c r="F310" t="s">
         <v>17</v>
       </c>
-      <c r="H310" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -6438,19 +6412,16 @@
       <c r="F311" t="s">
         <v>17</v>
       </c>
-      <c r="H311" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B312">
         <v>12.456827894327896</v>
       </c>
       <c r="C312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D312" t="s">
         <v>6</v>
@@ -6459,21 +6430,19 @@
         <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>104</v>
-      </c>
-      <c r="H312" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -6481,15 +6450,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -6505,36 +6474,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B320" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>22</v>
       </c>
       <c r="B321" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -6556,20 +6525,17 @@
       <c r="G323" t="s">
         <v>2</v>
       </c>
-      <c r="H323" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B324">
         <f>12.89</f>
         <v>12.89</v>
       </c>
       <c r="C324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D324" t="s">
         <v>6</v>
@@ -6578,21 +6544,18 @@
         <v>14</v>
       </c>
       <c r="G324" t="s">
-        <v>104</v>
-      </c>
-      <c r="H324" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D325" t="s">
         <v>13</v>
@@ -6601,22 +6564,19 @@
         <v>18</v>
       </c>
       <c r="G325" t="s">
-        <v>108</v>
-      </c>
-      <c r="H325" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B326" s="4">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C326" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D326" t="s">
         <v>13</v>
@@ -6625,22 +6585,19 @@
         <v>14</v>
       </c>
       <c r="G326" t="s">
-        <v>47</v>
-      </c>
-      <c r="H326" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B327" s="4">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
@@ -6651,20 +6608,17 @@
       <c r="G327" t="s">
         <v>20</v>
       </c>
-      <c r="H327" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B328" s="4">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
       <c r="C328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D328" t="s">
         <v>13</v>
@@ -6673,22 +6627,19 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>35</v>
-      </c>
-      <c r="H328" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>36</v>
       </c>
       <c r="B329" s="4">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
       <c r="C329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D329" t="s">
         <v>13</v>
@@ -6697,46 +6648,40 @@
         <v>14</v>
       </c>
       <c r="G329" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>37</v>
-      </c>
-      <c r="H329" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>38</v>
       </c>
       <c r="B330" s="4">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C330" t="s">
+        <v>38</v>
+      </c>
+      <c r="D330" t="s">
+        <v>13</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
         <v>39</v>
       </c>
-      <c r="D330" t="s">
-        <v>13</v>
-      </c>
-      <c r="F330" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" t="s">
-        <v>40</v>
-      </c>
-      <c r="H330" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
-        <v>110</v>
+    </row>
+    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B331" s="4">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C331" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D331" t="s">
         <v>13</v>
@@ -6744,16 +6689,13 @@
       <c r="F331" t="s">
         <v>14</v>
       </c>
-      <c r="G331" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H331" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G331" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B332" s="4">
         <v>-1.69</v>
@@ -6768,12 +6710,16 @@
         <v>17</v>
       </c>
       <c r="G332" s="3"/>
-      <c r="H332" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K332" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:K332" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, coal gasification"/>
+        <filter val="hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
